--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -6,9 +6,11 @@
   </bookViews>
   <sheets>
     <sheet name="20211110220651 - Nov 10 2021" sheetId="1" r:id="rId1"/>
+    <sheet name="20211110221236 - Nov 10 2021" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20211110221236 - Nov 10 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -273,8 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -919,6 +922,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId17"/>
+    <hyperlink ref="K3" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="K5" r:id="rId20"/>
+    <hyperlink ref="K6" r:id="rId21"/>
+    <hyperlink ref="K7" r:id="rId22"/>
+    <hyperlink ref="K8" r:id="rId23"/>
+    <hyperlink ref="K9" r:id="rId24"/>
+    <hyperlink ref="K10" r:id="rId25"/>
+    <hyperlink ref="K11" r:id="rId26"/>
+    <hyperlink ref="K12" r:id="rId27"/>
+    <hyperlink ref="K13" r:id="rId28"/>
+    <hyperlink ref="K14" r:id="rId29"/>
+    <hyperlink ref="K15" r:id="rId30"/>
+    <hyperlink ref="K16" r:id="rId31"/>
+    <hyperlink ref="K17" r:id="rId32"/>
+    <hyperlink ref="K18" r:id="rId33"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -7,10 +7,12 @@
   <sheets>
     <sheet name="20211110220651 - Nov 10 2021" sheetId="1" r:id="rId1"/>
     <sheet name="20211110221236 - Nov 10 2021" sheetId="2" r:id="rId3"/>
+    <sheet name="20211111040340 - Nov 11 2021" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20211110221236 - Nov 10 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20211111040340 - Nov 11 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -275,8 +277,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
@@ -922,6 +925,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId33"/>
+    <hyperlink ref="K3" r:id="rId34"/>
+    <hyperlink ref="K4" r:id="rId35"/>
+    <hyperlink ref="K5" r:id="rId36"/>
+    <hyperlink ref="K6" r:id="rId37"/>
+    <hyperlink ref="K7" r:id="rId38"/>
+    <hyperlink ref="K8" r:id="rId39"/>
+    <hyperlink ref="K9" r:id="rId40"/>
+    <hyperlink ref="K10" r:id="rId41"/>
+    <hyperlink ref="K11" r:id="rId42"/>
+    <hyperlink ref="K12" r:id="rId43"/>
+    <hyperlink ref="K13" r:id="rId44"/>
+    <hyperlink ref="K14" r:id="rId45"/>
+    <hyperlink ref="K15" r:id="rId46"/>
+    <hyperlink ref="K16" r:id="rId47"/>
+    <hyperlink ref="K17" r:id="rId48"/>
+    <hyperlink ref="K18" r:id="rId49"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -950,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1024,7 +1690,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1059,7 +1725,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1094,7 +1760,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1129,7 +1795,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1164,7 +1830,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1199,7 +1865,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1234,7 +1900,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1269,7 +1935,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1304,7 +1970,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1339,7 +2005,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1374,7 +2040,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1409,7 +2075,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1444,7 +2110,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1465,7 +2131,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1479,7 +2145,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1514,7 +2180,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1549,7 +2215,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1570,7 +2236,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1584,7 +2250,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -8,11 +8,13 @@
     <sheet name="20211110220651 - Nov 10 2021" sheetId="1" r:id="rId1"/>
     <sheet name="20211110221236 - Nov 10 2021" sheetId="2" r:id="rId3"/>
     <sheet name="20211111040340 - Nov 11 2021" sheetId="3" r:id="rId4"/>
+    <sheet name="20211112040334 - Nov 12 2021" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20211110221236 - Nov 10 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20211111040340 - Nov 11 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20211112040334 - Nov 12 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -277,8 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -925,6 +928,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId49"/>
+    <hyperlink ref="K3" r:id="rId50"/>
+    <hyperlink ref="K4" r:id="rId51"/>
+    <hyperlink ref="K5" r:id="rId52"/>
+    <hyperlink ref="K6" r:id="rId53"/>
+    <hyperlink ref="K7" r:id="rId54"/>
+    <hyperlink ref="K8" r:id="rId55"/>
+    <hyperlink ref="K9" r:id="rId56"/>
+    <hyperlink ref="K10" r:id="rId57"/>
+    <hyperlink ref="K11" r:id="rId58"/>
+    <hyperlink ref="K12" r:id="rId59"/>
+    <hyperlink ref="K13" r:id="rId60"/>
+    <hyperlink ref="K14" r:id="rId61"/>
+    <hyperlink ref="K15" r:id="rId62"/>
+    <hyperlink ref="K16" r:id="rId63"/>
+    <hyperlink ref="K17" r:id="rId64"/>
+    <hyperlink ref="K18" r:id="rId65"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -953,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1027,7 +1693,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1062,7 +1728,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1097,7 +1763,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1132,7 +1798,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1167,7 +1833,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1202,7 +1868,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1237,7 +1903,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1272,7 +1938,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1307,7 +1973,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1342,7 +2008,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1377,7 +2043,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1412,7 +2078,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1447,7 +2113,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1468,7 +2134,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1482,7 +2148,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1517,7 +2183,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1552,7 +2218,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1573,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1587,7 +2253,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1616,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1690,7 +2356,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1711,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1725,7 +2391,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1746,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1760,7 +2426,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1795,7 +2461,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1830,7 +2496,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1865,7 +2531,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1900,7 +2566,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1935,7 +2601,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1970,7 +2636,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1991,7 +2657,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2005,7 +2671,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2040,7 +2706,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2075,7 +2741,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2096,7 +2762,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2110,7 +2776,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2145,7 +2811,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2166,7 +2832,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2180,7 +2846,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2201,7 +2867,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2215,7 +2881,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2236,10 +2902,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2250,7 +2916,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -9,12 +9,14 @@
     <sheet name="20211110221236 - Nov 10 2021" sheetId="2" r:id="rId3"/>
     <sheet name="20211111040340 - Nov 11 2021" sheetId="3" r:id="rId4"/>
     <sheet name="20211112040334 - Nov 12 2021" sheetId="4" r:id="rId5"/>
+    <sheet name="20211113040325 - Nov 13 2021" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20211110221236 - Nov 10 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20211111040340 - Nov 11 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20211112040334 - Nov 12 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20211113040325 - Nov 13 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -279,8 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -928,6 +931,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId65"/>
+    <hyperlink ref="K3" r:id="rId66"/>
+    <hyperlink ref="K4" r:id="rId67"/>
+    <hyperlink ref="K5" r:id="rId68"/>
+    <hyperlink ref="K6" r:id="rId69"/>
+    <hyperlink ref="K7" r:id="rId70"/>
+    <hyperlink ref="K8" r:id="rId71"/>
+    <hyperlink ref="K9" r:id="rId72"/>
+    <hyperlink ref="K10" r:id="rId73"/>
+    <hyperlink ref="K11" r:id="rId74"/>
+    <hyperlink ref="K12" r:id="rId75"/>
+    <hyperlink ref="K13" r:id="rId76"/>
+    <hyperlink ref="K14" r:id="rId77"/>
+    <hyperlink ref="K15" r:id="rId78"/>
+    <hyperlink ref="K16" r:id="rId79"/>
+    <hyperlink ref="K17" r:id="rId80"/>
+    <hyperlink ref="K18" r:id="rId81"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -956,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1030,7 +1696,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1065,7 +1731,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1100,7 +1766,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1135,7 +1801,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1170,7 +1836,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1205,7 +1871,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1240,7 +1906,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1275,7 +1941,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1310,7 +1976,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1345,7 +2011,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1380,7 +2046,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1415,7 +2081,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1450,7 +2116,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1471,7 +2137,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1485,7 +2151,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1520,7 +2186,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1555,7 +2221,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1576,7 +2242,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1590,7 +2256,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1619,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1693,7 +2359,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1714,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1728,7 +2394,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1749,7 +2415,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1763,7 +2429,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1798,7 +2464,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1833,7 +2499,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1868,7 +2534,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1903,7 +2569,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1938,7 +2604,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1973,7 +2639,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1994,7 +2660,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2008,7 +2674,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2043,7 +2709,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2078,7 +2744,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2099,7 +2765,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2113,7 +2779,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2148,7 +2814,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2169,7 +2835,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2183,7 +2849,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2204,7 +2870,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2218,7 +2884,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2239,10 +2905,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2253,7 +2919,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2282,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2356,7 +3022,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2391,7 +3057,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2426,7 +3092,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2461,7 +3127,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2496,7 +3162,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2531,7 +3197,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2566,7 +3232,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2601,7 +3267,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2636,7 +3302,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2671,7 +3337,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2706,7 +3372,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2741,7 +3407,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2776,7 +3442,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2811,7 +3477,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2832,7 +3498,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2846,7 +3512,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2867,7 +3533,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2881,7 +3547,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2902,10 +3568,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2916,7 +3582,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -10,6 +10,7 @@
     <sheet name="20211111040340 - Nov 11 2021" sheetId="3" r:id="rId4"/>
     <sheet name="20211112040334 - Nov 12 2021" sheetId="4" r:id="rId5"/>
     <sheet name="20211113040325 - Nov 13 2021" sheetId="5" r:id="rId6"/>
+    <sheet name="20211114040423 - Nov 14 2021" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -17,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20211111040340 - Nov 11 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20211112040334 - Nov 12 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20211113040325 - Nov 13 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20211114040423 - Nov 14 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -281,8 +283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -931,6 +934,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId81"/>
+    <hyperlink ref="K3" r:id="rId82"/>
+    <hyperlink ref="K4" r:id="rId83"/>
+    <hyperlink ref="K5" r:id="rId84"/>
+    <hyperlink ref="K6" r:id="rId85"/>
+    <hyperlink ref="K7" r:id="rId86"/>
+    <hyperlink ref="K8" r:id="rId87"/>
+    <hyperlink ref="K9" r:id="rId88"/>
+    <hyperlink ref="K10" r:id="rId89"/>
+    <hyperlink ref="K11" r:id="rId90"/>
+    <hyperlink ref="K12" r:id="rId91"/>
+    <hyperlink ref="K13" r:id="rId92"/>
+    <hyperlink ref="K14" r:id="rId93"/>
+    <hyperlink ref="K15" r:id="rId94"/>
+    <hyperlink ref="K16" r:id="rId95"/>
+    <hyperlink ref="K17" r:id="rId96"/>
+    <hyperlink ref="K18" r:id="rId97"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -959,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1033,7 +1699,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1068,7 +1734,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1103,7 +1769,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1138,7 +1804,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1173,7 +1839,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1208,7 +1874,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1243,7 +1909,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1278,7 +1944,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1313,7 +1979,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1348,7 +2014,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1383,7 +2049,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1418,7 +2084,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1453,7 +2119,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1474,7 +2140,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1488,7 +2154,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1523,7 +2189,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1558,7 +2224,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1579,7 +2245,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1593,7 +2259,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1622,7 +2288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1696,7 +2362,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1717,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1731,7 +2397,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1752,7 +2418,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1766,7 +2432,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1801,7 +2467,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1836,7 +2502,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1871,7 +2537,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1906,7 +2572,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1941,7 +2607,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1976,7 +2642,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1997,7 +2663,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2011,7 +2677,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2046,7 +2712,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2081,7 +2747,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2102,7 +2768,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2116,7 +2782,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2151,7 +2817,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2172,7 +2838,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2186,7 +2852,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2207,7 +2873,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2221,7 +2887,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2242,10 +2908,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2256,7 +2922,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2285,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2359,7 +3025,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2394,7 +3060,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2429,7 +3095,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2464,7 +3130,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2499,7 +3165,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2534,7 +3200,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2569,7 +3235,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2604,7 +3270,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2639,7 +3305,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2674,7 +3340,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2709,7 +3375,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2744,7 +3410,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2779,7 +3445,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2814,7 +3480,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2835,7 +3501,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2849,7 +3515,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2870,7 +3536,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2884,7 +3550,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2905,10 +3571,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2919,7 +3585,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2948,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3022,7 +3688,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3057,7 +3723,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3092,7 +3758,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3127,7 +3793,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3162,7 +3828,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3197,7 +3863,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3232,7 +3898,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3253,7 +3919,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3267,7 +3933,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3302,7 +3968,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3323,7 +3989,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3337,7 +4003,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3372,7 +4038,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3393,7 +4059,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -3407,7 +4073,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3428,7 +4094,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3442,7 +4108,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3463,7 +4129,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3477,7 +4143,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3498,7 +4164,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3512,7 +4178,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3533,7 +4199,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3547,7 +4213,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3568,7 +4234,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3582,7 +4248,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -11,6 +11,7 @@
     <sheet name="20211112040334 - Nov 12 2021" sheetId="4" r:id="rId5"/>
     <sheet name="20211113040325 - Nov 13 2021" sheetId="5" r:id="rId6"/>
     <sheet name="20211114040423 - Nov 14 2021" sheetId="6" r:id="rId7"/>
+    <sheet name="20211115040350 - Nov 15 2021" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -19,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20211112040334 - Nov 12 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20211113040325 - Nov 13 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20211114040423 - Nov 14 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20211115040350 - Nov 15 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -283,8 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -934,6 +937,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId97"/>
+    <hyperlink ref="K3" r:id="rId98"/>
+    <hyperlink ref="K4" r:id="rId99"/>
+    <hyperlink ref="K5" r:id="rId100"/>
+    <hyperlink ref="K6" r:id="rId101"/>
+    <hyperlink ref="K7" r:id="rId102"/>
+    <hyperlink ref="K8" r:id="rId103"/>
+    <hyperlink ref="K9" r:id="rId104"/>
+    <hyperlink ref="K10" r:id="rId105"/>
+    <hyperlink ref="K11" r:id="rId106"/>
+    <hyperlink ref="K12" r:id="rId107"/>
+    <hyperlink ref="K13" r:id="rId108"/>
+    <hyperlink ref="K14" r:id="rId109"/>
+    <hyperlink ref="K15" r:id="rId110"/>
+    <hyperlink ref="K16" r:id="rId111"/>
+    <hyperlink ref="K17" r:id="rId112"/>
+    <hyperlink ref="K18" r:id="rId113"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -962,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1036,7 +1702,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1071,7 +1737,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1106,7 +1772,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1141,7 +1807,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1176,7 +1842,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1211,7 +1877,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1246,7 +1912,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1281,7 +1947,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1316,7 +1982,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1351,7 +2017,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1386,7 +2052,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1421,7 +2087,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1456,7 +2122,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1477,7 +2143,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1491,7 +2157,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1526,7 +2192,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1561,7 +2227,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1582,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1596,7 +2262,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1625,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1699,7 +2365,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1720,7 +2386,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1734,7 +2400,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1755,7 +2421,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1769,7 +2435,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1804,7 +2470,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1839,7 +2505,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1874,7 +2540,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1909,7 +2575,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1944,7 +2610,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1979,7 +2645,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2000,7 +2666,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2014,7 +2680,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2049,7 +2715,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2084,7 +2750,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2105,7 +2771,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2119,7 +2785,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2154,7 +2820,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2175,7 +2841,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2189,7 +2855,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2210,7 +2876,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2224,7 +2890,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2245,10 +2911,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2259,7 +2925,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2288,7 +2954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2362,7 +3028,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2397,7 +3063,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2432,7 +3098,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2467,7 +3133,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2502,7 +3168,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2537,7 +3203,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2572,7 +3238,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2607,7 +3273,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2642,7 +3308,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2677,7 +3343,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2712,7 +3378,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2747,7 +3413,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2782,7 +3448,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2817,7 +3483,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2838,7 +3504,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2852,7 +3518,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2873,7 +3539,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2887,7 +3553,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2908,10 +3574,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2922,7 +3588,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2951,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3025,7 +3691,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3060,7 +3726,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3095,7 +3761,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3130,7 +3796,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3165,7 +3831,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3200,7 +3866,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3235,7 +3901,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3256,7 +3922,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3270,7 +3936,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3305,7 +3971,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3326,7 +3992,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3340,7 +4006,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3375,7 +4041,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3396,7 +4062,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -3410,7 +4076,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3431,7 +4097,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3445,7 +4111,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3466,7 +4132,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3480,7 +4146,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3501,7 +4167,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3515,7 +4181,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3536,7 +4202,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3550,7 +4216,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3571,7 +4237,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3585,7 +4251,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3614,7 +4280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3674,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -3688,7 +4354,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3709,7 +4375,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3723,7 +4389,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3758,7 +4424,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3793,7 +4459,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3828,7 +4494,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3863,7 +4529,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3884,7 +4550,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -3898,7 +4564,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3919,7 +4585,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3933,7 +4599,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3954,7 +4620,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -3968,7 +4634,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3989,7 +4655,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4003,7 +4669,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4024,7 +4690,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -4038,7 +4704,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4059,7 +4725,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4073,7 +4739,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4108,7 +4774,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4143,7 +4809,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4164,7 +4830,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4178,7 +4844,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4199,7 +4865,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4213,7 +4879,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4234,7 +4900,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4248,7 +4914,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -12,6 +12,7 @@
     <sheet name="20211113040325 - Nov 13 2021" sheetId="5" r:id="rId6"/>
     <sheet name="20211114040423 - Nov 14 2021" sheetId="6" r:id="rId7"/>
     <sheet name="20211115040350 - Nov 15 2021" sheetId="7" r:id="rId8"/>
+    <sheet name="20211116040328 - Nov 16 2021" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -21,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20211113040325 - Nov 13 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20211114040423 - Nov 14 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20211115040350 - Nov 15 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20211116040328 - Nov 16 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -285,8 +287,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -943,6 +946,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId113"/>
+    <hyperlink ref="K3" r:id="rId114"/>
+    <hyperlink ref="K4" r:id="rId115"/>
+    <hyperlink ref="K5" r:id="rId116"/>
+    <hyperlink ref="K6" r:id="rId117"/>
+    <hyperlink ref="K7" r:id="rId118"/>
+    <hyperlink ref="K8" r:id="rId119"/>
+    <hyperlink ref="K9" r:id="rId120"/>
+    <hyperlink ref="K10" r:id="rId121"/>
+    <hyperlink ref="K11" r:id="rId122"/>
+    <hyperlink ref="K12" r:id="rId123"/>
+    <hyperlink ref="K13" r:id="rId124"/>
+    <hyperlink ref="K14" r:id="rId125"/>
+    <hyperlink ref="K15" r:id="rId126"/>
+    <hyperlink ref="K16" r:id="rId127"/>
+    <hyperlink ref="K17" r:id="rId128"/>
+    <hyperlink ref="K18" r:id="rId129"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId97"/>
     <hyperlink ref="K3" r:id="rId98"/>
     <hyperlink ref="K4" r:id="rId99"/>
@@ -965,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1039,7 +1705,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1074,7 +1740,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1109,7 +1775,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1144,7 +1810,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1179,7 +1845,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1214,7 +1880,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1249,7 +1915,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1284,7 +1950,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1319,7 +1985,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1354,7 +2020,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1389,7 +2055,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1424,7 +2090,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1459,7 +2125,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1480,7 +2146,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1494,7 +2160,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1529,7 +2195,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1564,7 +2230,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1585,7 +2251,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1599,7 +2265,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1628,7 +2294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1702,7 +2368,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +2389,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1737,7 +2403,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1758,7 +2424,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1772,7 +2438,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1807,7 +2473,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1842,7 +2508,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1877,7 +2543,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1912,7 +2578,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1947,7 +2613,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1982,7 +2648,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2003,7 +2669,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2017,7 +2683,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2052,7 +2718,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2087,7 +2753,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2108,7 +2774,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2122,7 +2788,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2157,7 +2823,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2178,7 +2844,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2192,7 +2858,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2213,7 +2879,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2227,7 +2893,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2248,10 +2914,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2262,7 +2928,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2291,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2365,7 +3031,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2400,7 +3066,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2435,7 +3101,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2470,7 +3136,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2505,7 +3171,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2540,7 +3206,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2575,7 +3241,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2610,7 +3276,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2645,7 +3311,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2680,7 +3346,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2715,7 +3381,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2750,7 +3416,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2785,7 +3451,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2820,7 +3486,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2841,7 +3507,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2855,7 +3521,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2876,7 +3542,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2890,7 +3556,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2911,10 +3577,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2925,7 +3591,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2954,7 +3620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3028,7 +3694,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3063,7 +3729,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3098,7 +3764,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3133,7 +3799,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3168,7 +3834,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3203,7 +3869,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3238,7 +3904,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3259,7 +3925,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3273,7 +3939,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3308,7 +3974,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3329,7 +3995,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3343,7 +4009,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3378,7 +4044,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3399,7 +4065,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -3413,7 +4079,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3434,7 +4100,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3448,7 +4114,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3469,7 +4135,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3483,7 +4149,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3504,7 +4170,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3518,7 +4184,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3539,7 +4205,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3553,7 +4219,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3574,7 +4240,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3588,7 +4254,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3617,7 +4283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3677,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -3691,7 +4357,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3712,7 +4378,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3726,7 +4392,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3761,7 +4427,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3796,7 +4462,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3831,7 +4497,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3866,7 +4532,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3887,7 +4553,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -3901,7 +4567,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3922,7 +4588,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3936,7 +4602,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3957,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -3971,7 +4637,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3992,7 +4658,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4006,7 +4672,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4027,7 +4693,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -4041,7 +4707,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4062,7 +4728,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4076,7 +4742,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4111,7 +4777,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4146,7 +4812,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4167,7 +4833,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4181,7 +4847,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4202,7 +4868,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4216,7 +4882,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4237,7 +4903,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4251,7 +4917,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4280,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4340,7 +5006,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4354,7 +5020,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4389,7 +5055,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4424,7 +5090,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4459,7 +5125,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4494,7 +5160,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4529,7 +5195,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4564,7 +5230,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4599,7 +5265,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4634,7 +5300,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4669,7 +5335,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4704,7 +5370,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4739,7 +5405,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4774,7 +5440,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4795,7 +5461,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -4809,7 +5475,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4830,7 +5496,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4844,7 +5510,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4865,7 +5531,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4879,7 +5545,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4900,7 +5566,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4914,7 +5580,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -13,6 +13,7 @@
     <sheet name="20211114040423 - Nov 14 2021" sheetId="6" r:id="rId7"/>
     <sheet name="20211115040350 - Nov 15 2021" sheetId="7" r:id="rId8"/>
     <sheet name="20211116040328 - Nov 16 2021" sheetId="8" r:id="rId9"/>
+    <sheet name="20211117040343 - Nov 17 2021" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -23,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20211114040423 - Nov 14 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20211115040350 - Nov 15 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20211116040328 - Nov 16 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20211117040343 - Nov 17 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -287,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -946,6 +949,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId129"/>
+    <hyperlink ref="K3" r:id="rId130"/>
+    <hyperlink ref="K4" r:id="rId131"/>
+    <hyperlink ref="K5" r:id="rId132"/>
+    <hyperlink ref="K6" r:id="rId133"/>
+    <hyperlink ref="K7" r:id="rId134"/>
+    <hyperlink ref="K8" r:id="rId135"/>
+    <hyperlink ref="K9" r:id="rId136"/>
+    <hyperlink ref="K10" r:id="rId137"/>
+    <hyperlink ref="K11" r:id="rId138"/>
+    <hyperlink ref="K12" r:id="rId139"/>
+    <hyperlink ref="K13" r:id="rId140"/>
+    <hyperlink ref="K14" r:id="rId141"/>
+    <hyperlink ref="K15" r:id="rId142"/>
+    <hyperlink ref="K16" r:id="rId143"/>
+    <hyperlink ref="K17" r:id="rId144"/>
+    <hyperlink ref="K18" r:id="rId145"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId113"/>
     <hyperlink ref="K3" r:id="rId114"/>
     <hyperlink ref="K4" r:id="rId115"/>
@@ -968,7 +1634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1042,7 +1708,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1077,7 +1743,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1112,7 +1778,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1147,7 +1813,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1182,7 +1848,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1217,7 +1883,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1252,7 +1918,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1287,7 +1953,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1322,7 +1988,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1357,7 +2023,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1392,7 +2058,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1427,7 +2093,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1462,7 +2128,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1483,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1497,7 +2163,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1532,7 +2198,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1567,7 +2233,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1588,7 +2254,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1602,7 +2268,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1631,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1705,7 +2371,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1726,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1740,7 +2406,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1761,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1775,7 +2441,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1810,7 +2476,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1845,7 +2511,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1880,7 +2546,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1915,7 +2581,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1950,7 +2616,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1985,7 +2651,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2006,7 +2672,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2020,7 +2686,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2055,7 +2721,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2090,7 +2756,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2111,7 +2777,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2125,7 +2791,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2160,7 +2826,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2181,7 +2847,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2195,7 +2861,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2216,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2230,7 +2896,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2251,10 +2917,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2265,7 +2931,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2294,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2368,7 +3034,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2403,7 +3069,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2438,7 +3104,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2473,7 +3139,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2508,7 +3174,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2543,7 +3209,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2578,7 +3244,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2613,7 +3279,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2648,7 +3314,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2683,7 +3349,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2718,7 +3384,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2753,7 +3419,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2788,7 +3454,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2823,7 +3489,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2844,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2858,7 +3524,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2879,7 +3545,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2893,7 +3559,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2914,10 +3580,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2928,7 +3594,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2957,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3031,7 +3697,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3066,7 +3732,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3101,7 +3767,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3136,7 +3802,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3171,7 +3837,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3206,7 +3872,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3241,7 +3907,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3262,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3276,7 +3942,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3311,7 +3977,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3332,7 +3998,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3346,7 +4012,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3381,7 +4047,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3402,7 +4068,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -3416,7 +4082,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3437,7 +4103,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3451,7 +4117,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3472,7 +4138,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3486,7 +4152,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3507,7 +4173,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3521,7 +4187,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3542,7 +4208,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3556,7 +4222,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3577,7 +4243,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3591,7 +4257,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3620,7 +4286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3680,7 +4346,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -3694,7 +4360,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3715,7 +4381,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3729,7 +4395,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3764,7 +4430,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3799,7 +4465,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3834,7 +4500,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3869,7 +4535,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3890,7 +4556,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -3904,7 +4570,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3925,7 +4591,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3939,7 +4605,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3960,7 +4626,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -3974,7 +4640,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3995,7 +4661,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4009,7 +4675,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4030,7 +4696,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -4044,7 +4710,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4065,7 +4731,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4079,7 +4745,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4114,7 +4780,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4149,7 +4815,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4170,7 +4836,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4184,7 +4850,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4205,7 +4871,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4219,7 +4885,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4240,7 +4906,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4254,7 +4920,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4283,7 +4949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4343,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4357,7 +5023,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4392,7 +5058,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4427,7 +5093,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4462,7 +5128,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4497,7 +5163,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4532,7 +5198,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4567,7 +5233,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4602,7 +5268,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4637,7 +5303,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4672,7 +5338,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4707,7 +5373,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4742,7 +5408,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4777,7 +5443,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4798,7 +5464,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -4812,7 +5478,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4833,7 +5499,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4847,7 +5513,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4868,7 +5534,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4882,7 +5548,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4903,7 +5569,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4917,7 +5583,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4946,7 +5612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5020,7 +5686,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5055,7 +5721,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5076,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -5090,7 +5756,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5125,7 +5791,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5160,7 +5826,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5195,7 +5861,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5216,7 +5882,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -5230,7 +5896,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5251,7 +5917,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5265,7 +5931,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5300,7 +5966,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5321,7 +5987,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -5335,7 +6001,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5370,7 +6036,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5405,7 +6071,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5440,7 +6106,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5475,7 +6141,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5496,7 +6162,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5510,7 +6176,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5531,7 +6197,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5545,7 +6211,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5566,7 +6232,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5580,7 +6246,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>

--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -14,6 +14,7 @@
     <sheet name="20211115040350 - Nov 15 2021" sheetId="7" r:id="rId8"/>
     <sheet name="20211116040328 - Nov 16 2021" sheetId="8" r:id="rId9"/>
     <sheet name="20211117040343 - Nov 17 2021" sheetId="9" r:id="rId10"/>
+    <sheet name="20211118040347 - Nov 18 2021" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20211115040350 - Nov 15 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20211116040328 - Nov 16 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20211117040343 - Nov 17 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20211118040347 - Nov 18 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -289,8 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -949,6 +952,1332 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId145"/>
+    <hyperlink ref="K3" r:id="rId146"/>
+    <hyperlink ref="K4" r:id="rId147"/>
+    <hyperlink ref="K5" r:id="rId148"/>
+    <hyperlink ref="K6" r:id="rId149"/>
+    <hyperlink ref="K7" r:id="rId150"/>
+    <hyperlink ref="K8" r:id="rId151"/>
+    <hyperlink ref="K9" r:id="rId152"/>
+    <hyperlink ref="K10" r:id="rId153"/>
+    <hyperlink ref="K11" r:id="rId154"/>
+    <hyperlink ref="K12" r:id="rId155"/>
+    <hyperlink ref="K13" r:id="rId156"/>
+    <hyperlink ref="K14" r:id="rId157"/>
+    <hyperlink ref="K15" r:id="rId158"/>
+    <hyperlink ref="K16" r:id="rId159"/>
+    <hyperlink ref="K17" r:id="rId160"/>
+    <hyperlink ref="K18" r:id="rId161"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>825</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>949</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>813</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>279</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>342</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>257</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>464</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>886</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>499</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>251</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId129"/>
     <hyperlink ref="K3" r:id="rId130"/>
     <hyperlink ref="K4" r:id="rId131"/>
@@ -971,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1045,7 +2374,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1080,7 +2409,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1115,7 +2444,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1150,7 +2479,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1185,7 +2514,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1220,7 +2549,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1255,7 +2584,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1290,7 +2619,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1325,7 +2654,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1360,7 +2689,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1395,7 +2724,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1430,7 +2759,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1465,7 +2794,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1486,7 +2815,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -1500,7 +2829,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1535,7 +2864,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1570,7 +2899,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1591,7 +2920,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -1605,7 +2934,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1634,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1708,7 +3037,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1729,7 +3058,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -1743,7 +3072,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1764,7 +3093,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -1778,7 +3107,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1813,7 +3142,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1848,7 +3177,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1883,7 +3212,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1918,7 +3247,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1953,7 +3282,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1988,7 +3317,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2009,7 +3338,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2023,7 +3352,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2058,7 +3387,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2093,7 +3422,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2114,7 +3443,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2128,7 +3457,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2163,7 +3492,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2184,7 +3513,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2198,7 +3527,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2219,7 +3548,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2233,7 +3562,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2254,10 +3583,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2268,7 +3597,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2297,7 +3626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2371,7 +3700,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2406,7 +3735,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2441,7 +3770,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2476,7 +3805,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2511,7 +3840,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2546,7 +3875,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2581,7 +3910,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2616,7 +3945,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2651,7 +3980,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2686,7 +4015,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2721,7 +4050,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2756,7 +4085,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2791,7 +4120,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2826,7 +4155,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2847,7 +4176,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2861,7 +4190,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2882,7 +4211,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2896,7 +4225,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2917,10 +4246,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2931,7 +4260,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2960,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3034,7 +4363,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3069,7 +4398,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3104,7 +4433,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3139,7 +4468,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3174,7 +4503,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3209,7 +4538,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3244,7 +4573,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3265,7 +4594,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3279,7 +4608,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3314,7 +4643,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3335,7 +4664,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3349,7 +4678,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3384,7 +4713,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3405,7 +4734,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -3419,7 +4748,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3440,7 +4769,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3454,7 +4783,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3475,7 +4804,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3489,7 +4818,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3510,7 +4839,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3524,7 +4853,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3545,7 +4874,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3559,7 +4888,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3580,7 +4909,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3594,7 +4923,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3623,7 +4952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3683,7 +5012,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -3697,7 +5026,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3718,7 +5047,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3732,7 +5061,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3767,7 +5096,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3802,7 +5131,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3837,7 +5166,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3872,7 +5201,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3893,7 +5222,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -3907,7 +5236,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3928,7 +5257,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3942,7 +5271,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3963,7 +5292,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -3977,7 +5306,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3998,7 +5327,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4012,7 +5341,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4033,7 +5362,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -4047,7 +5376,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4068,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4082,7 +5411,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4117,7 +5446,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4152,7 +5481,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4173,7 +5502,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4187,7 +5516,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4208,7 +5537,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4222,7 +5551,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4243,7 +5572,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4257,7 +5586,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4286,7 +5615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4346,7 +5675,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4360,7 +5689,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4395,7 +5724,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4430,7 +5759,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4465,7 +5794,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4500,7 +5829,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4535,7 +5864,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4570,7 +5899,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4605,7 +5934,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4640,7 +5969,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4675,7 +6004,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4710,7 +6039,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4745,7 +6074,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4780,7 +6109,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4801,7 +6130,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -4815,7 +6144,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4836,7 +6165,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4850,7 +6179,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4871,7 +6200,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4885,7 +6214,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4906,7 +6235,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4920,7 +6249,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4949,7 +6278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5023,7 +6352,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5058,7 +6387,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5079,7 +6408,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -5093,7 +6422,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5128,7 +6457,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5163,7 +6492,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5198,7 +6527,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5219,7 +6548,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -5233,7 +6562,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5254,7 +6583,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5268,7 +6597,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5303,7 +6632,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5324,7 +6653,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -5338,7 +6667,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5373,7 +6702,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5408,7 +6737,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5443,7 +6772,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5478,7 +6807,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5499,7 +6828,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5513,7 +6842,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5534,7 +6863,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5548,7 +6877,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5569,7 +6898,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5583,7 +6912,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5610,667 +6939,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -15,6 +15,7 @@
     <sheet name="20211116040328 - Nov 16 2021" sheetId="8" r:id="rId9"/>
     <sheet name="20211117040343 - Nov 17 2021" sheetId="9" r:id="rId10"/>
     <sheet name="20211118040347 - Nov 18 2021" sheetId="10" r:id="rId11"/>
+    <sheet name="20211119040345 - Nov 19 2021" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20211116040328 - Nov 16 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20211117040343 - Nov 17 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20211118040347 - Nov 18 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20211119040345 - Nov 19 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -291,8 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -952,23 +955,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId145"/>
-    <hyperlink ref="K3" r:id="rId146"/>
-    <hyperlink ref="K4" r:id="rId147"/>
-    <hyperlink ref="K5" r:id="rId148"/>
-    <hyperlink ref="K6" r:id="rId149"/>
-    <hyperlink ref="K7" r:id="rId150"/>
-    <hyperlink ref="K8" r:id="rId151"/>
-    <hyperlink ref="K9" r:id="rId152"/>
-    <hyperlink ref="K10" r:id="rId153"/>
-    <hyperlink ref="K11" r:id="rId154"/>
-    <hyperlink ref="K12" r:id="rId155"/>
-    <hyperlink ref="K13" r:id="rId156"/>
-    <hyperlink ref="K14" r:id="rId157"/>
-    <hyperlink ref="K15" r:id="rId158"/>
-    <hyperlink ref="K16" r:id="rId159"/>
-    <hyperlink ref="K17" r:id="rId160"/>
-    <hyperlink ref="K18" r:id="rId161"/>
+    <hyperlink ref="K2" r:id="rId161"/>
+    <hyperlink ref="K3" r:id="rId162"/>
+    <hyperlink ref="K4" r:id="rId163"/>
+    <hyperlink ref="K5" r:id="rId164"/>
+    <hyperlink ref="K6" r:id="rId165"/>
+    <hyperlink ref="K7" r:id="rId166"/>
+    <hyperlink ref="K8" r:id="rId167"/>
+    <hyperlink ref="K9" r:id="rId168"/>
+    <hyperlink ref="K10" r:id="rId169"/>
+    <hyperlink ref="K11" r:id="rId170"/>
+    <hyperlink ref="K12" r:id="rId171"/>
+    <hyperlink ref="K13" r:id="rId172"/>
+    <hyperlink ref="K14" r:id="rId173"/>
+    <hyperlink ref="K15" r:id="rId174"/>
+    <hyperlink ref="K16" r:id="rId175"/>
+    <hyperlink ref="K17" r:id="rId176"/>
+    <hyperlink ref="K18" r:id="rId177"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1609,6 +1612,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId17"/>
+    <hyperlink ref="K3" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="K5" r:id="rId20"/>
+    <hyperlink ref="K6" r:id="rId21"/>
+    <hyperlink ref="K7" r:id="rId22"/>
+    <hyperlink ref="K8" r:id="rId23"/>
+    <hyperlink ref="K9" r:id="rId24"/>
+    <hyperlink ref="K10" r:id="rId25"/>
+    <hyperlink ref="K11" r:id="rId26"/>
+    <hyperlink ref="K12" r:id="rId27"/>
+    <hyperlink ref="K13" r:id="rId28"/>
+    <hyperlink ref="K14" r:id="rId29"/>
+    <hyperlink ref="K15" r:id="rId30"/>
+    <hyperlink ref="K16" r:id="rId31"/>
+    <hyperlink ref="K17" r:id="rId32"/>
+    <hyperlink ref="K18" r:id="rId33"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2278,6 +2944,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId145"/>
+    <hyperlink ref="K3" r:id="rId146"/>
+    <hyperlink ref="K4" r:id="rId147"/>
+    <hyperlink ref="K5" r:id="rId148"/>
+    <hyperlink ref="K6" r:id="rId149"/>
+    <hyperlink ref="K7" r:id="rId150"/>
+    <hyperlink ref="K8" r:id="rId151"/>
+    <hyperlink ref="K9" r:id="rId152"/>
+    <hyperlink ref="K10" r:id="rId153"/>
+    <hyperlink ref="K11" r:id="rId154"/>
+    <hyperlink ref="K12" r:id="rId155"/>
+    <hyperlink ref="K13" r:id="rId156"/>
+    <hyperlink ref="K14" r:id="rId157"/>
+    <hyperlink ref="K15" r:id="rId158"/>
+    <hyperlink ref="K16" r:id="rId159"/>
+    <hyperlink ref="K17" r:id="rId160"/>
+    <hyperlink ref="K18" r:id="rId161"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId129"/>
     <hyperlink ref="K3" r:id="rId130"/>
     <hyperlink ref="K4" r:id="rId131"/>
@@ -2300,7 +3629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2374,7 +3703,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2395,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -2409,7 +3738,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2430,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -2444,7 +3773,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2479,7 +3808,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2514,7 +3843,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2549,7 +3878,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2584,7 +3913,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2619,7 +3948,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2654,7 +3983,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2675,7 +4004,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2689,7 +4018,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2724,7 +4053,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2759,7 +4088,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2780,7 +4109,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -2794,7 +4123,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2829,7 +4158,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2850,7 +4179,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -2864,7 +4193,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2885,7 +4214,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2899,7 +4228,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2920,10 +4249,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -2934,7 +4263,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2963,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3037,7 +4366,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3072,7 +4401,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3107,7 +4436,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3142,7 +4471,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3177,7 +4506,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3212,7 +4541,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3247,7 +4576,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3282,7 +4611,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3317,7 +4646,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3352,7 +4681,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3387,7 +4716,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3422,7 +4751,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3457,7 +4786,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3492,7 +4821,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3513,7 +4842,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3527,7 +4856,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3548,7 +4877,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3562,7 +4891,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3583,10 +4912,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3597,7 +4926,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3626,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3700,7 +5029,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3735,7 +5064,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3770,7 +5099,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3805,7 +5134,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3840,7 +5169,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3875,7 +5204,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3910,7 +5239,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3931,7 +5260,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3945,7 +5274,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3980,7 +5309,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4001,7 +5330,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4015,7 +5344,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4050,7 +5379,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4071,7 +5400,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4085,7 +5414,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4106,7 +5435,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4120,7 +5449,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4141,7 +5470,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -4155,7 +5484,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4176,7 +5505,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4190,7 +5519,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4211,7 +5540,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4225,7 +5554,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4246,7 +5575,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4260,7 +5589,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4289,7 +5618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4349,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4363,7 +5692,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4384,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -4398,7 +5727,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4433,7 +5762,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4468,7 +5797,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4503,7 +5832,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4538,7 +5867,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4559,7 +5888,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -4573,7 +5902,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4594,7 +5923,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4608,7 +5937,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4629,7 +5958,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -4643,7 +5972,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4664,7 +5993,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4678,7 +6007,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4699,7 +6028,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -4713,7 +6042,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4734,7 +6063,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4748,7 +6077,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4783,7 +6112,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4818,7 +6147,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4839,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4853,7 +6182,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4874,7 +6203,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4888,7 +6217,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4909,7 +6238,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4923,7 +6252,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4952,7 +6281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5012,7 +6341,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -5026,7 +6355,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5061,7 +6390,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5096,7 +6425,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5131,7 +6460,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5166,7 +6495,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5201,7 +6530,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5236,7 +6565,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5271,7 +6600,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5306,7 +6635,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5341,7 +6670,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5376,7 +6705,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5411,7 +6740,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5446,7 +6775,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5467,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -5481,7 +6810,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5502,7 +6831,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5516,7 +6845,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5537,7 +6866,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5551,7 +6880,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5572,7 +6901,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5586,7 +6915,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5615,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5689,7 +7018,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5724,7 +7053,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5745,7 +7074,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -5759,7 +7088,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5794,7 +7123,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5829,7 +7158,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5864,7 +7193,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5885,7 +7214,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -5899,7 +7228,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5920,7 +7249,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5934,7 +7263,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5969,7 +7298,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5990,7 +7319,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6004,7 +7333,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6039,7 +7368,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6074,7 +7403,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6109,7 +7438,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6144,7 +7473,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6165,7 +7494,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6179,7 +7508,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6200,7 +7529,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6214,7 +7543,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6235,7 +7564,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6249,7 +7578,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6276,667 +7605,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId17"/>
-    <hyperlink ref="K3" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="K5" r:id="rId20"/>
-    <hyperlink ref="K6" r:id="rId21"/>
-    <hyperlink ref="K7" r:id="rId22"/>
-    <hyperlink ref="K8" r:id="rId23"/>
-    <hyperlink ref="K9" r:id="rId24"/>
-    <hyperlink ref="K10" r:id="rId25"/>
-    <hyperlink ref="K11" r:id="rId26"/>
-    <hyperlink ref="K12" r:id="rId27"/>
-    <hyperlink ref="K13" r:id="rId28"/>
-    <hyperlink ref="K14" r:id="rId29"/>
-    <hyperlink ref="K15" r:id="rId30"/>
-    <hyperlink ref="K16" r:id="rId31"/>
-    <hyperlink ref="K17" r:id="rId32"/>
-    <hyperlink ref="K18" r:id="rId33"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -16,6 +16,7 @@
     <sheet name="20211117040343 - Nov 17 2021" sheetId="9" r:id="rId10"/>
     <sheet name="20211118040347 - Nov 18 2021" sheetId="10" r:id="rId11"/>
     <sheet name="20211119040345 - Nov 19 2021" sheetId="11" r:id="rId12"/>
+    <sheet name="20211120040354 - Nov 20 2021" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -29,6 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20211117040343 - Nov 17 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20211118040347 - Nov 18 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20211119040345 - Nov 19 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20211120040354 - Nov 20 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -293,8 +295,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -955,23 +958,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId161"/>
-    <hyperlink ref="K3" r:id="rId162"/>
-    <hyperlink ref="K4" r:id="rId163"/>
-    <hyperlink ref="K5" r:id="rId164"/>
-    <hyperlink ref="K6" r:id="rId165"/>
-    <hyperlink ref="K7" r:id="rId166"/>
-    <hyperlink ref="K8" r:id="rId167"/>
-    <hyperlink ref="K9" r:id="rId168"/>
-    <hyperlink ref="K10" r:id="rId169"/>
-    <hyperlink ref="K11" r:id="rId170"/>
-    <hyperlink ref="K12" r:id="rId171"/>
-    <hyperlink ref="K13" r:id="rId172"/>
-    <hyperlink ref="K14" r:id="rId173"/>
-    <hyperlink ref="K15" r:id="rId174"/>
-    <hyperlink ref="K16" r:id="rId175"/>
-    <hyperlink ref="K17" r:id="rId176"/>
-    <hyperlink ref="K18" r:id="rId177"/>
+    <hyperlink ref="K2" r:id="rId177"/>
+    <hyperlink ref="K3" r:id="rId178"/>
+    <hyperlink ref="K4" r:id="rId179"/>
+    <hyperlink ref="K5" r:id="rId180"/>
+    <hyperlink ref="K6" r:id="rId181"/>
+    <hyperlink ref="K7" r:id="rId182"/>
+    <hyperlink ref="K8" r:id="rId183"/>
+    <hyperlink ref="K9" r:id="rId184"/>
+    <hyperlink ref="K10" r:id="rId185"/>
+    <hyperlink ref="K11" r:id="rId186"/>
+    <hyperlink ref="K12" r:id="rId187"/>
+    <hyperlink ref="K13" r:id="rId188"/>
+    <hyperlink ref="K14" r:id="rId189"/>
+    <hyperlink ref="K15" r:id="rId190"/>
+    <hyperlink ref="K16" r:id="rId191"/>
+    <hyperlink ref="K17" r:id="rId192"/>
+    <hyperlink ref="K18" r:id="rId193"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1612,6 +1615,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId33"/>
+    <hyperlink ref="K3" r:id="rId34"/>
+    <hyperlink ref="K4" r:id="rId35"/>
+    <hyperlink ref="K5" r:id="rId36"/>
+    <hyperlink ref="K6" r:id="rId37"/>
+    <hyperlink ref="K7" r:id="rId38"/>
+    <hyperlink ref="K8" r:id="rId39"/>
+    <hyperlink ref="K9" r:id="rId40"/>
+    <hyperlink ref="K10" r:id="rId41"/>
+    <hyperlink ref="K11" r:id="rId42"/>
+    <hyperlink ref="K12" r:id="rId43"/>
+    <hyperlink ref="K13" r:id="rId44"/>
+    <hyperlink ref="K14" r:id="rId45"/>
+    <hyperlink ref="K15" r:id="rId46"/>
+    <hyperlink ref="K16" r:id="rId47"/>
+    <hyperlink ref="K17" r:id="rId48"/>
+    <hyperlink ref="K18" r:id="rId49"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1640,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1714,7 +2380,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1749,7 +2415,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1784,7 +2450,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1819,7 +2485,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1854,7 +2520,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1889,7 +2555,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1910,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1924,7 +2590,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1945,7 +2611,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1959,7 +2625,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1994,7 +2660,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2015,7 +2681,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2029,7 +2695,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2064,7 +2730,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2099,7 +2765,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2134,7 +2800,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2169,7 +2835,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2190,7 +2856,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2204,7 +2870,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2225,7 +2891,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2239,7 +2905,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2260,7 +2926,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2274,7 +2940,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2944,6 +3610,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId161"/>
+    <hyperlink ref="K3" r:id="rId162"/>
+    <hyperlink ref="K4" r:id="rId163"/>
+    <hyperlink ref="K5" r:id="rId164"/>
+    <hyperlink ref="K6" r:id="rId165"/>
+    <hyperlink ref="K7" r:id="rId166"/>
+    <hyperlink ref="K8" r:id="rId167"/>
+    <hyperlink ref="K9" r:id="rId168"/>
+    <hyperlink ref="K10" r:id="rId169"/>
+    <hyperlink ref="K11" r:id="rId170"/>
+    <hyperlink ref="K12" r:id="rId171"/>
+    <hyperlink ref="K13" r:id="rId172"/>
+    <hyperlink ref="K14" r:id="rId173"/>
+    <hyperlink ref="K15" r:id="rId174"/>
+    <hyperlink ref="K16" r:id="rId175"/>
+    <hyperlink ref="K17" r:id="rId176"/>
+    <hyperlink ref="K18" r:id="rId177"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId145"/>
     <hyperlink ref="K3" r:id="rId146"/>
     <hyperlink ref="K4" r:id="rId147"/>
@@ -2966,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3040,7 +4369,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3061,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3075,7 +4404,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3096,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3110,7 +4439,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3145,7 +4474,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3180,7 +4509,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3215,7 +4544,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3250,7 +4579,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3285,7 +4614,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3320,7 +4649,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3341,7 +4670,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3355,7 +4684,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3390,7 +4719,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3425,7 +4754,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3446,7 +4775,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3460,7 +4789,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3495,7 +4824,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3516,7 +4845,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -3530,7 +4859,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3551,7 +4880,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -3565,7 +4894,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3586,10 +4915,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3600,7 +4929,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3629,7 +4958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3703,7 +5032,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3738,7 +5067,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3773,7 +5102,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3808,7 +5137,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3843,7 +5172,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3878,7 +5207,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3913,7 +5242,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3948,7 +5277,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3983,7 +5312,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4018,7 +5347,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4053,7 +5382,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4088,7 +5417,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4123,7 +5452,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4158,7 +5487,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4179,7 +5508,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4193,7 +5522,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4214,7 +5543,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4228,7 +5557,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4249,10 +5578,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -4263,7 +5592,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4292,7 +5621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4366,7 +5695,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4401,7 +5730,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4436,7 +5765,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4471,7 +5800,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4506,7 +5835,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4541,7 +5870,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4576,7 +5905,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4597,7 +5926,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4611,7 +5940,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4646,7 +5975,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4667,7 +5996,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4681,7 +6010,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4716,7 +6045,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4737,7 +6066,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4751,7 +6080,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4772,7 +6101,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4786,7 +6115,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4807,7 +6136,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -4821,7 +6150,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4842,7 +6171,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4856,7 +6185,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4877,7 +6206,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4891,7 +6220,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4912,7 +6241,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4926,7 +6255,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4955,7 +6284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5015,7 +6344,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -5029,7 +6358,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5050,7 +6379,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -5064,7 +6393,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5099,7 +6428,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5134,7 +6463,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5169,7 +6498,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5204,7 +6533,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5225,7 +6554,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -5239,7 +6568,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5260,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5274,7 +6603,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5295,7 +6624,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -5309,7 +6638,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5330,7 +6659,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -5344,7 +6673,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5365,7 +6694,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -5379,7 +6708,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5400,7 +6729,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5414,7 +6743,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5449,7 +6778,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5484,7 +6813,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5505,7 +6834,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5519,7 +6848,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5540,7 +6869,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5554,7 +6883,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5575,7 +6904,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5589,7 +6918,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5618,7 +6947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5678,7 +7007,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -5692,7 +7021,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5727,7 +7056,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5762,7 +7091,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5797,7 +7126,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5832,7 +7161,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5867,7 +7196,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5902,7 +7231,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5937,7 +7266,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5972,7 +7301,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6007,7 +7336,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6042,7 +7371,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6077,7 +7406,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6112,7 +7441,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6133,7 +7462,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6147,7 +7476,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6168,7 +7497,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6182,7 +7511,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6203,7 +7532,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6217,7 +7546,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6238,7 +7567,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6252,7 +7581,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6281,7 +7610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6355,7 +7684,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6390,7 +7719,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6411,7 +7740,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -6425,7 +7754,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6460,7 +7789,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6495,7 +7824,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6530,7 +7859,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6551,7 +7880,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6565,7 +7894,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6586,7 +7915,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -6600,7 +7929,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6635,7 +7964,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6656,7 +7985,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6670,7 +7999,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6705,7 +8034,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6740,7 +8069,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6775,7 +8104,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6810,7 +8139,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6831,7 +8160,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6845,7 +8174,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6866,7 +8195,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6880,7 +8209,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6901,7 +8230,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6915,7 +8244,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6942,667 +8271,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId33"/>
-    <hyperlink ref="K3" r:id="rId34"/>
-    <hyperlink ref="K4" r:id="rId35"/>
-    <hyperlink ref="K5" r:id="rId36"/>
-    <hyperlink ref="K6" r:id="rId37"/>
-    <hyperlink ref="K7" r:id="rId38"/>
-    <hyperlink ref="K8" r:id="rId39"/>
-    <hyperlink ref="K9" r:id="rId40"/>
-    <hyperlink ref="K10" r:id="rId41"/>
-    <hyperlink ref="K11" r:id="rId42"/>
-    <hyperlink ref="K12" r:id="rId43"/>
-    <hyperlink ref="K13" r:id="rId44"/>
-    <hyperlink ref="K14" r:id="rId45"/>
-    <hyperlink ref="K15" r:id="rId46"/>
-    <hyperlink ref="K16" r:id="rId47"/>
-    <hyperlink ref="K17" r:id="rId48"/>
-    <hyperlink ref="K18" r:id="rId49"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -17,6 +17,7 @@
     <sheet name="20211118040347 - Nov 18 2021" sheetId="10" r:id="rId11"/>
     <sheet name="20211119040345 - Nov 19 2021" sheetId="11" r:id="rId12"/>
     <sheet name="20211120040354 - Nov 20 2021" sheetId="12" r:id="rId13"/>
+    <sheet name="20211121040421 - Nov 21 2021" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -31,6 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20211118040347 - Nov 18 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20211119040345 - Nov 19 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20211120040354 - Nov 20 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20211121040421 - Nov 21 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -295,8 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -958,23 +961,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId177"/>
-    <hyperlink ref="K3" r:id="rId178"/>
-    <hyperlink ref="K4" r:id="rId179"/>
-    <hyperlink ref="K5" r:id="rId180"/>
-    <hyperlink ref="K6" r:id="rId181"/>
-    <hyperlink ref="K7" r:id="rId182"/>
-    <hyperlink ref="K8" r:id="rId183"/>
-    <hyperlink ref="K9" r:id="rId184"/>
-    <hyperlink ref="K10" r:id="rId185"/>
-    <hyperlink ref="K11" r:id="rId186"/>
-    <hyperlink ref="K12" r:id="rId187"/>
-    <hyperlink ref="K13" r:id="rId188"/>
-    <hyperlink ref="K14" r:id="rId189"/>
-    <hyperlink ref="K15" r:id="rId190"/>
-    <hyperlink ref="K16" r:id="rId191"/>
-    <hyperlink ref="K17" r:id="rId192"/>
-    <hyperlink ref="K18" r:id="rId193"/>
+    <hyperlink ref="K2" r:id="rId193"/>
+    <hyperlink ref="K3" r:id="rId194"/>
+    <hyperlink ref="K4" r:id="rId195"/>
+    <hyperlink ref="K5" r:id="rId196"/>
+    <hyperlink ref="K6" r:id="rId197"/>
+    <hyperlink ref="K7" r:id="rId198"/>
+    <hyperlink ref="K8" r:id="rId199"/>
+    <hyperlink ref="K9" r:id="rId200"/>
+    <hyperlink ref="K10" r:id="rId201"/>
+    <hyperlink ref="K11" r:id="rId202"/>
+    <hyperlink ref="K12" r:id="rId203"/>
+    <hyperlink ref="K13" r:id="rId204"/>
+    <hyperlink ref="K14" r:id="rId205"/>
+    <hyperlink ref="K15" r:id="rId206"/>
+    <hyperlink ref="K16" r:id="rId207"/>
+    <hyperlink ref="K17" r:id="rId208"/>
+    <hyperlink ref="K18" r:id="rId209"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1615,6 +1618,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId49"/>
+    <hyperlink ref="K3" r:id="rId50"/>
+    <hyperlink ref="K4" r:id="rId51"/>
+    <hyperlink ref="K5" r:id="rId52"/>
+    <hyperlink ref="K6" r:id="rId53"/>
+    <hyperlink ref="K7" r:id="rId54"/>
+    <hyperlink ref="K8" r:id="rId55"/>
+    <hyperlink ref="K9" r:id="rId56"/>
+    <hyperlink ref="K10" r:id="rId57"/>
+    <hyperlink ref="K11" r:id="rId58"/>
+    <hyperlink ref="K12" r:id="rId59"/>
+    <hyperlink ref="K13" r:id="rId60"/>
+    <hyperlink ref="K14" r:id="rId61"/>
+    <hyperlink ref="K15" r:id="rId62"/>
+    <hyperlink ref="K16" r:id="rId63"/>
+    <hyperlink ref="K17" r:id="rId64"/>
+    <hyperlink ref="K18" r:id="rId65"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1643,7 +2309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1717,7 +2383,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1752,7 +2418,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1787,7 +2453,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1822,7 +2488,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1857,7 +2523,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1892,7 +2558,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1913,7 +2579,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1927,7 +2593,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1948,7 +2614,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1962,7 +2628,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1997,7 +2663,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2018,7 +2684,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2032,7 +2698,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2067,7 +2733,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2102,7 +2768,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2137,7 +2803,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2172,7 +2838,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2193,7 +2859,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2207,7 +2873,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2228,7 +2894,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2242,7 +2908,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2263,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2277,7 +2943,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2306,7 +2972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2366,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2380,7 +3046,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2415,7 +3081,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2450,7 +3116,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2485,7 +3151,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2520,7 +3186,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2555,7 +3221,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2576,7 +3242,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2590,7 +3256,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2611,7 +3277,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2625,7 +3291,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2660,7 +3326,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2695,7 +3361,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2730,7 +3396,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2765,7 +3431,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2800,7 +3466,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2821,7 +3487,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2835,7 +3501,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2870,7 +3536,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2891,7 +3557,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2903,9 +3569,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2926,7 +3592,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2940,7 +3606,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3610,6 +4276,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId177"/>
+    <hyperlink ref="K3" r:id="rId178"/>
+    <hyperlink ref="K4" r:id="rId179"/>
+    <hyperlink ref="K5" r:id="rId180"/>
+    <hyperlink ref="K6" r:id="rId181"/>
+    <hyperlink ref="K7" r:id="rId182"/>
+    <hyperlink ref="K8" r:id="rId183"/>
+    <hyperlink ref="K9" r:id="rId184"/>
+    <hyperlink ref="K10" r:id="rId185"/>
+    <hyperlink ref="K11" r:id="rId186"/>
+    <hyperlink ref="K12" r:id="rId187"/>
+    <hyperlink ref="K13" r:id="rId188"/>
+    <hyperlink ref="K14" r:id="rId189"/>
+    <hyperlink ref="K15" r:id="rId190"/>
+    <hyperlink ref="K16" r:id="rId191"/>
+    <hyperlink ref="K17" r:id="rId192"/>
+    <hyperlink ref="K18" r:id="rId193"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId161"/>
     <hyperlink ref="K3" r:id="rId162"/>
     <hyperlink ref="K4" r:id="rId163"/>
@@ -3632,7 +4961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3706,7 +5035,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3727,7 +5056,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -3741,7 +5070,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3762,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3776,7 +5105,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3811,7 +5140,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3846,7 +5175,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3881,7 +5210,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3916,7 +5245,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3951,7 +5280,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3986,7 +5315,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4007,7 +5336,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4021,7 +5350,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4056,7 +5385,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4091,7 +5420,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4112,7 +5441,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4126,7 +5455,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4161,7 +5490,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4182,7 +5511,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4196,7 +5525,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4217,7 +5546,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4231,7 +5560,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4252,10 +5581,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -4266,7 +5595,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4295,7 +5624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4369,7 +5698,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4404,7 +5733,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4439,7 +5768,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4474,7 +5803,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4509,7 +5838,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4544,7 +5873,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4579,7 +5908,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4614,7 +5943,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4649,7 +5978,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4684,7 +6013,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4719,7 +6048,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4754,7 +6083,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4789,7 +6118,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4824,7 +6153,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4845,7 +6174,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4859,7 +6188,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4880,7 +6209,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4894,7 +6223,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4915,10 +6244,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -4929,7 +6258,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4958,7 +6287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5032,7 +6361,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5067,7 +6396,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5102,7 +6431,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5137,7 +6466,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5172,7 +6501,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5207,7 +6536,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5242,7 +6571,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5263,7 +6592,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5277,7 +6606,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5312,7 +6641,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5333,7 +6662,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -5347,7 +6676,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5382,7 +6711,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5403,7 +6732,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5417,7 +6746,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5438,7 +6767,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5452,7 +6781,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5473,7 +6802,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -5487,7 +6816,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5508,7 +6837,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5522,7 +6851,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5543,7 +6872,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5557,7 +6886,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5578,7 +6907,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5592,7 +6921,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5621,7 +6950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5681,7 +7010,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -5695,7 +7024,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5716,7 +7045,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -5730,7 +7059,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5765,7 +7094,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5800,7 +7129,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5835,7 +7164,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5870,7 +7199,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5891,7 +7220,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -5905,7 +7234,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5926,7 +7255,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5940,7 +7269,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5961,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -5975,7 +7304,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5996,7 +7325,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6010,7 +7339,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6031,7 +7360,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -6045,7 +7374,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6066,7 +7395,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6080,7 +7409,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6115,7 +7444,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6150,7 +7479,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6171,7 +7500,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6185,7 +7514,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6206,7 +7535,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6220,7 +7549,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6241,7 +7570,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6255,7 +7584,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6284,7 +7613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6344,7 +7673,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -6358,7 +7687,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6393,7 +7722,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6428,7 +7757,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6463,7 +7792,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6498,7 +7827,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6533,7 +7862,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6568,7 +7897,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6603,7 +7932,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6638,7 +7967,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6673,7 +8002,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6708,7 +8037,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6743,7 +8072,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6778,7 +8107,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6799,7 +8128,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6813,7 +8142,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6834,7 +8163,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6848,7 +8177,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6869,7 +8198,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6883,7 +8212,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6904,7 +8233,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6918,7 +8247,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6947,7 +8276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7021,7 +8350,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7056,7 +8385,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7077,7 +8406,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7091,7 +8420,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7126,7 +8455,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7161,7 +8490,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7196,7 +8525,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7217,7 +8546,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7231,7 +8560,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7252,7 +8581,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7266,7 +8595,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7301,7 +8630,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7322,7 +8651,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7336,7 +8665,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7371,7 +8700,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7406,7 +8735,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7441,7 +8770,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7476,7 +8805,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7497,7 +8826,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7511,7 +8840,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7532,7 +8861,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7546,7 +8875,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7567,7 +8896,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7581,7 +8910,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7608,667 +8937,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId49"/>
-    <hyperlink ref="K3" r:id="rId50"/>
-    <hyperlink ref="K4" r:id="rId51"/>
-    <hyperlink ref="K5" r:id="rId52"/>
-    <hyperlink ref="K6" r:id="rId53"/>
-    <hyperlink ref="K7" r:id="rId54"/>
-    <hyperlink ref="K8" r:id="rId55"/>
-    <hyperlink ref="K9" r:id="rId56"/>
-    <hyperlink ref="K10" r:id="rId57"/>
-    <hyperlink ref="K11" r:id="rId58"/>
-    <hyperlink ref="K12" r:id="rId59"/>
-    <hyperlink ref="K13" r:id="rId60"/>
-    <hyperlink ref="K14" r:id="rId61"/>
-    <hyperlink ref="K15" r:id="rId62"/>
-    <hyperlink ref="K16" r:id="rId63"/>
-    <hyperlink ref="K17" r:id="rId64"/>
-    <hyperlink ref="K18" r:id="rId65"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -18,6 +18,7 @@
     <sheet name="20211119040345 - Nov 19 2021" sheetId="11" r:id="rId12"/>
     <sheet name="20211120040354 - Nov 20 2021" sheetId="12" r:id="rId13"/>
     <sheet name="20211121040421 - Nov 21 2021" sheetId="13" r:id="rId14"/>
+    <sheet name="20211122040821 - Nov 22 2021" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -33,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20211119040345 - Nov 19 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20211120040354 - Nov 20 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20211121040421 - Nov 21 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20211122040821 - Nov 22 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -297,8 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -961,23 +964,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId193"/>
-    <hyperlink ref="K3" r:id="rId194"/>
-    <hyperlink ref="K4" r:id="rId195"/>
-    <hyperlink ref="K5" r:id="rId196"/>
-    <hyperlink ref="K6" r:id="rId197"/>
-    <hyperlink ref="K7" r:id="rId198"/>
-    <hyperlink ref="K8" r:id="rId199"/>
-    <hyperlink ref="K9" r:id="rId200"/>
-    <hyperlink ref="K10" r:id="rId201"/>
-    <hyperlink ref="K11" r:id="rId202"/>
-    <hyperlink ref="K12" r:id="rId203"/>
-    <hyperlink ref="K13" r:id="rId204"/>
-    <hyperlink ref="K14" r:id="rId205"/>
-    <hyperlink ref="K15" r:id="rId206"/>
-    <hyperlink ref="K16" r:id="rId207"/>
-    <hyperlink ref="K17" r:id="rId208"/>
-    <hyperlink ref="K18" r:id="rId209"/>
+    <hyperlink ref="K2" r:id="rId209"/>
+    <hyperlink ref="K3" r:id="rId210"/>
+    <hyperlink ref="K4" r:id="rId211"/>
+    <hyperlink ref="K5" r:id="rId212"/>
+    <hyperlink ref="K6" r:id="rId213"/>
+    <hyperlink ref="K7" r:id="rId214"/>
+    <hyperlink ref="K8" r:id="rId215"/>
+    <hyperlink ref="K9" r:id="rId216"/>
+    <hyperlink ref="K10" r:id="rId217"/>
+    <hyperlink ref="K11" r:id="rId218"/>
+    <hyperlink ref="K12" r:id="rId219"/>
+    <hyperlink ref="K13" r:id="rId220"/>
+    <hyperlink ref="K14" r:id="rId221"/>
+    <hyperlink ref="K15" r:id="rId222"/>
+    <hyperlink ref="K16" r:id="rId223"/>
+    <hyperlink ref="K17" r:id="rId224"/>
+    <hyperlink ref="K18" r:id="rId225"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1618,6 +1621,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId65"/>
+    <hyperlink ref="K3" r:id="rId66"/>
+    <hyperlink ref="K4" r:id="rId67"/>
+    <hyperlink ref="K5" r:id="rId68"/>
+    <hyperlink ref="K6" r:id="rId69"/>
+    <hyperlink ref="K7" r:id="rId70"/>
+    <hyperlink ref="K8" r:id="rId71"/>
+    <hyperlink ref="K9" r:id="rId72"/>
+    <hyperlink ref="K10" r:id="rId73"/>
+    <hyperlink ref="K11" r:id="rId74"/>
+    <hyperlink ref="K12" r:id="rId75"/>
+    <hyperlink ref="K13" r:id="rId76"/>
+    <hyperlink ref="K14" r:id="rId77"/>
+    <hyperlink ref="K15" r:id="rId78"/>
+    <hyperlink ref="K16" r:id="rId79"/>
+    <hyperlink ref="K17" r:id="rId80"/>
+    <hyperlink ref="K18" r:id="rId81"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1646,7 +2312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1720,7 +2386,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1755,7 +2421,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1790,7 +2456,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1825,7 +2491,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1860,7 +2526,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1895,7 +2561,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1916,7 +2582,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1930,7 +2596,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1951,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1965,7 +2631,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2000,7 +2666,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2021,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2035,7 +2701,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2070,7 +2736,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2105,7 +2771,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2140,7 +2806,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2175,7 +2841,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2196,7 +2862,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2210,7 +2876,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2231,7 +2897,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2245,7 +2911,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2266,7 +2932,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2280,7 +2946,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2309,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2369,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2383,7 +3049,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2418,7 +3084,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2453,7 +3119,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2488,7 +3154,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2523,7 +3189,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2558,7 +3224,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2579,7 +3245,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2593,7 +3259,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2614,7 +3280,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2628,7 +3294,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2663,7 +3329,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2698,7 +3364,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2733,7 +3399,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2768,7 +3434,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2803,7 +3469,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2824,7 +3490,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2838,7 +3504,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2873,7 +3539,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2894,7 +3560,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2906,9 +3572,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2929,7 +3595,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2943,7 +3609,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2972,7 +3638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3046,7 +3712,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3081,7 +3747,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3102,7 +3768,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3116,7 +3782,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3151,7 +3817,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3186,7 +3852,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3221,7 +3887,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3256,7 +3922,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3291,7 +3957,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3326,7 +3992,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3347,7 +4013,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3361,7 +4027,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3396,7 +4062,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3431,7 +4097,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3452,7 +4118,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3466,7 +4132,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3487,7 +4153,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3501,7 +4167,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3522,7 +4188,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3536,7 +4202,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3557,10 +4223,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3571,7 +4237,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3592,7 +4258,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3606,7 +4272,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4276,6 +4942,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId193"/>
+    <hyperlink ref="K3" r:id="rId194"/>
+    <hyperlink ref="K4" r:id="rId195"/>
+    <hyperlink ref="K5" r:id="rId196"/>
+    <hyperlink ref="K6" r:id="rId197"/>
+    <hyperlink ref="K7" r:id="rId198"/>
+    <hyperlink ref="K8" r:id="rId199"/>
+    <hyperlink ref="K9" r:id="rId200"/>
+    <hyperlink ref="K10" r:id="rId201"/>
+    <hyperlink ref="K11" r:id="rId202"/>
+    <hyperlink ref="K12" r:id="rId203"/>
+    <hyperlink ref="K13" r:id="rId204"/>
+    <hyperlink ref="K14" r:id="rId205"/>
+    <hyperlink ref="K15" r:id="rId206"/>
+    <hyperlink ref="K16" r:id="rId207"/>
+    <hyperlink ref="K17" r:id="rId208"/>
+    <hyperlink ref="K18" r:id="rId209"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId177"/>
     <hyperlink ref="K3" r:id="rId178"/>
     <hyperlink ref="K4" r:id="rId179"/>
@@ -4298,7 +5627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4372,7 +5701,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4393,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -4407,7 +5736,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4428,7 +5757,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4442,7 +5771,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4477,7 +5806,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4512,7 +5841,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4547,7 +5876,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4582,7 +5911,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4617,7 +5946,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4652,7 +5981,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4673,7 +6002,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4687,7 +6016,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4722,7 +6051,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4757,7 +6086,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4778,7 +6107,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4792,7 +6121,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4827,7 +6156,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4848,7 +6177,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -4862,7 +6191,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4883,7 +6212,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -4897,7 +6226,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4918,10 +6247,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -4932,7 +6261,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4961,7 +6290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5035,7 +6364,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5070,7 +6399,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5105,7 +6434,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5140,7 +6469,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5175,7 +6504,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5210,7 +6539,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5245,7 +6574,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5280,7 +6609,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5315,7 +6644,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5350,7 +6679,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5385,7 +6714,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5420,7 +6749,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5455,7 +6784,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5490,7 +6819,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5511,7 +6840,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5525,7 +6854,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5546,7 +6875,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5560,7 +6889,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5581,10 +6910,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -5595,7 +6924,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5624,7 +6953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5698,7 +7027,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5733,7 +7062,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5768,7 +7097,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5803,7 +7132,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5838,7 +7167,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5873,7 +7202,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5908,7 +7237,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5929,7 +7258,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -5943,7 +7272,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5978,7 +7307,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5999,7 +7328,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6013,7 +7342,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6048,7 +7377,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6069,7 +7398,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6083,7 +7412,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6104,7 +7433,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6118,7 +7447,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6139,7 +7468,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6153,7 +7482,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6174,7 +7503,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6188,7 +7517,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6209,7 +7538,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6223,7 +7552,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6244,7 +7573,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6258,7 +7587,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6287,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6347,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -6361,7 +7690,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6382,7 +7711,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -6396,7 +7725,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6431,7 +7760,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6466,7 +7795,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6501,7 +7830,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6536,7 +7865,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6557,7 +7886,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6571,7 +7900,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6592,7 +7921,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -6606,7 +7935,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6627,7 +7956,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -6641,7 +7970,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6662,7 +7991,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6676,7 +8005,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6697,7 +8026,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -6711,7 +8040,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6732,7 +8061,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6746,7 +8075,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6781,7 +8110,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6816,7 +8145,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6837,7 +8166,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6851,7 +8180,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6872,7 +8201,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6886,7 +8215,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6907,7 +8236,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6921,7 +8250,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6950,7 +8279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7010,7 +8339,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7024,7 +8353,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7059,7 +8388,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7094,7 +8423,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7129,7 +8458,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7164,7 +8493,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7199,7 +8528,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7234,7 +8563,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7269,7 +8598,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7304,7 +8633,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7339,7 +8668,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7374,7 +8703,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7409,7 +8738,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7444,7 +8773,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7465,7 +8794,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -7479,7 +8808,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7500,7 +8829,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7514,7 +8843,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7535,7 +8864,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7549,7 +8878,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7570,7 +8899,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7584,7 +8913,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7613,7 +8942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7687,7 +9016,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7722,7 +9051,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7743,7 +9072,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7757,7 +9086,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7792,7 +9121,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7827,7 +9156,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7862,7 +9191,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7883,7 +9212,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7897,7 +9226,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7918,7 +9247,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7932,7 +9261,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7967,7 +9296,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7988,7 +9317,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8002,7 +9331,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8037,7 +9366,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8072,7 +9401,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8107,7 +9436,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8142,7 +9471,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8163,7 +9492,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8177,7 +9506,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8198,7 +9527,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8212,7 +9541,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8233,7 +9562,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8247,7 +9576,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8274,667 +9603,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId65"/>
-    <hyperlink ref="K3" r:id="rId66"/>
-    <hyperlink ref="K4" r:id="rId67"/>
-    <hyperlink ref="K5" r:id="rId68"/>
-    <hyperlink ref="K6" r:id="rId69"/>
-    <hyperlink ref="K7" r:id="rId70"/>
-    <hyperlink ref="K8" r:id="rId71"/>
-    <hyperlink ref="K9" r:id="rId72"/>
-    <hyperlink ref="K10" r:id="rId73"/>
-    <hyperlink ref="K11" r:id="rId74"/>
-    <hyperlink ref="K12" r:id="rId75"/>
-    <hyperlink ref="K13" r:id="rId76"/>
-    <hyperlink ref="K14" r:id="rId77"/>
-    <hyperlink ref="K15" r:id="rId78"/>
-    <hyperlink ref="K16" r:id="rId79"/>
-    <hyperlink ref="K17" r:id="rId80"/>
-    <hyperlink ref="K18" r:id="rId81"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -19,6 +19,7 @@
     <sheet name="20211120040354 - Nov 20 2021" sheetId="12" r:id="rId13"/>
     <sheet name="20211121040421 - Nov 21 2021" sheetId="13" r:id="rId14"/>
     <sheet name="20211122040821 - Nov 22 2021" sheetId="14" r:id="rId15"/>
+    <sheet name="20211123040345 - Nov 23 2021" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -35,6 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20211120040354 - Nov 20 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20211121040421 - Nov 21 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20211122040821 - Nov 22 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20211123040345 - Nov 23 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -299,8 +301,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -964,23 +967,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId209"/>
-    <hyperlink ref="K3" r:id="rId210"/>
-    <hyperlink ref="K4" r:id="rId211"/>
-    <hyperlink ref="K5" r:id="rId212"/>
-    <hyperlink ref="K6" r:id="rId213"/>
-    <hyperlink ref="K7" r:id="rId214"/>
-    <hyperlink ref="K8" r:id="rId215"/>
-    <hyperlink ref="K9" r:id="rId216"/>
-    <hyperlink ref="K10" r:id="rId217"/>
-    <hyperlink ref="K11" r:id="rId218"/>
-    <hyperlink ref="K12" r:id="rId219"/>
-    <hyperlink ref="K13" r:id="rId220"/>
-    <hyperlink ref="K14" r:id="rId221"/>
-    <hyperlink ref="K15" r:id="rId222"/>
-    <hyperlink ref="K16" r:id="rId223"/>
-    <hyperlink ref="K17" r:id="rId224"/>
-    <hyperlink ref="K18" r:id="rId225"/>
+    <hyperlink ref="K2" r:id="rId225"/>
+    <hyperlink ref="K3" r:id="rId226"/>
+    <hyperlink ref="K4" r:id="rId227"/>
+    <hyperlink ref="K5" r:id="rId228"/>
+    <hyperlink ref="K6" r:id="rId229"/>
+    <hyperlink ref="K7" r:id="rId230"/>
+    <hyperlink ref="K8" r:id="rId231"/>
+    <hyperlink ref="K9" r:id="rId232"/>
+    <hyperlink ref="K10" r:id="rId233"/>
+    <hyperlink ref="K11" r:id="rId234"/>
+    <hyperlink ref="K12" r:id="rId235"/>
+    <hyperlink ref="K13" r:id="rId236"/>
+    <hyperlink ref="K14" r:id="rId237"/>
+    <hyperlink ref="K15" r:id="rId238"/>
+    <hyperlink ref="K16" r:id="rId239"/>
+    <hyperlink ref="K17" r:id="rId240"/>
+    <hyperlink ref="K18" r:id="rId241"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1621,6 +1624,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId81"/>
+    <hyperlink ref="K3" r:id="rId82"/>
+    <hyperlink ref="K4" r:id="rId83"/>
+    <hyperlink ref="K5" r:id="rId84"/>
+    <hyperlink ref="K6" r:id="rId85"/>
+    <hyperlink ref="K7" r:id="rId86"/>
+    <hyperlink ref="K8" r:id="rId87"/>
+    <hyperlink ref="K9" r:id="rId88"/>
+    <hyperlink ref="K10" r:id="rId89"/>
+    <hyperlink ref="K11" r:id="rId90"/>
+    <hyperlink ref="K12" r:id="rId91"/>
+    <hyperlink ref="K13" r:id="rId92"/>
+    <hyperlink ref="K14" r:id="rId93"/>
+    <hyperlink ref="K15" r:id="rId94"/>
+    <hyperlink ref="K16" r:id="rId95"/>
+    <hyperlink ref="K17" r:id="rId96"/>
+    <hyperlink ref="K18" r:id="rId97"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1649,7 +2315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1723,7 +2389,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1758,7 +2424,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1793,7 +2459,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1828,7 +2494,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1863,7 +2529,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1898,7 +2564,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1919,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1933,7 +2599,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1954,7 +2620,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1968,7 +2634,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2003,7 +2669,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2024,7 +2690,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2038,7 +2704,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2073,7 +2739,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2108,7 +2774,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2143,7 +2809,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2178,7 +2844,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2199,7 +2865,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2213,7 +2879,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2234,7 +2900,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2248,7 +2914,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2269,7 +2935,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2283,7 +2949,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2312,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2372,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2386,7 +3052,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2421,7 +3087,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2456,7 +3122,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2491,7 +3157,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2526,7 +3192,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2561,7 +3227,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2582,7 +3248,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2596,7 +3262,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2617,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2631,7 +3297,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2666,7 +3332,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2701,7 +3367,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2736,7 +3402,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2771,7 +3437,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2806,7 +3472,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2827,7 +3493,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2841,7 +3507,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2876,7 +3542,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2897,7 +3563,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2909,9 +3575,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2932,7 +3598,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2946,7 +3612,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2975,7 +3641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3049,7 +3715,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3084,7 +3750,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3105,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3119,7 +3785,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3154,7 +3820,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3189,7 +3855,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3224,7 +3890,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3259,7 +3925,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3294,7 +3960,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3329,7 +3995,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3350,7 +4016,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3364,7 +4030,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3399,7 +4065,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3434,7 +4100,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3455,7 +4121,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3469,7 +4135,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3490,7 +4156,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3504,7 +4170,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3525,7 +4191,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3539,7 +4205,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3560,10 +4226,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3574,7 +4240,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3595,7 +4261,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3609,7 +4275,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3638,7 +4304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3712,7 +4378,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3747,7 +4413,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3768,7 +4434,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3782,7 +4448,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3817,7 +4483,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3852,7 +4518,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3887,7 +4553,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3922,7 +4588,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3943,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3957,7 +4623,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3992,7 +4658,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4013,7 +4679,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4027,7 +4693,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4062,7 +4728,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4083,7 +4749,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4097,7 +4763,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4132,7 +4798,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4167,7 +4833,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4188,7 +4854,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4202,7 +4868,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4237,7 +4903,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4258,7 +4924,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4272,7 +4938,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4942,6 +5608,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId209"/>
+    <hyperlink ref="K3" r:id="rId210"/>
+    <hyperlink ref="K4" r:id="rId211"/>
+    <hyperlink ref="K5" r:id="rId212"/>
+    <hyperlink ref="K6" r:id="rId213"/>
+    <hyperlink ref="K7" r:id="rId214"/>
+    <hyperlink ref="K8" r:id="rId215"/>
+    <hyperlink ref="K9" r:id="rId216"/>
+    <hyperlink ref="K10" r:id="rId217"/>
+    <hyperlink ref="K11" r:id="rId218"/>
+    <hyperlink ref="K12" r:id="rId219"/>
+    <hyperlink ref="K13" r:id="rId220"/>
+    <hyperlink ref="K14" r:id="rId221"/>
+    <hyperlink ref="K15" r:id="rId222"/>
+    <hyperlink ref="K16" r:id="rId223"/>
+    <hyperlink ref="K17" r:id="rId224"/>
+    <hyperlink ref="K18" r:id="rId225"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId193"/>
     <hyperlink ref="K3" r:id="rId194"/>
     <hyperlink ref="K4" r:id="rId195"/>
@@ -4964,7 +6293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5038,7 +6367,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5059,7 +6388,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -5073,7 +6402,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5094,7 +6423,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -5108,7 +6437,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5143,7 +6472,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5178,7 +6507,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5213,7 +6542,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5248,7 +6577,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5283,7 +6612,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5318,7 +6647,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5339,7 +6668,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -5353,7 +6682,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5388,7 +6717,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5423,7 +6752,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5444,7 +6773,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5458,7 +6787,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5493,7 +6822,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5514,7 +6843,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -5528,7 +6857,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5549,7 +6878,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -5563,7 +6892,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5584,10 +6913,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -5598,7 +6927,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5627,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5701,7 +7030,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5736,7 +7065,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5771,7 +7100,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5806,7 +7135,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5841,7 +7170,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5876,7 +7205,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5911,7 +7240,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5946,7 +7275,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5981,7 +7310,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6016,7 +7345,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6051,7 +7380,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6086,7 +7415,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6121,7 +7450,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6156,7 +7485,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6177,7 +7506,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6191,7 +7520,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6212,7 +7541,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6226,7 +7555,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6247,10 +7576,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -6261,7 +7590,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6290,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6364,7 +7693,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6399,7 +7728,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6434,7 +7763,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6469,7 +7798,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6504,7 +7833,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6539,7 +7868,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6574,7 +7903,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6595,7 +7924,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -6609,7 +7938,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6644,7 +7973,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6665,7 +7994,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6679,7 +8008,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6714,7 +8043,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6735,7 +8064,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6749,7 +8078,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6770,7 +8099,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6784,7 +8113,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6805,7 +8134,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6819,7 +8148,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6840,7 +8169,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6854,7 +8183,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6875,7 +8204,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6889,7 +8218,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6910,7 +8239,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6924,7 +8253,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6953,7 +8282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7013,7 +8342,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7027,7 +8356,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7048,7 +8377,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7062,7 +8391,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7097,7 +8426,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7132,7 +8461,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7167,7 +8496,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7202,7 +8531,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7223,7 +8552,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7237,7 +8566,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7258,7 +8587,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7272,7 +8601,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7293,7 +8622,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7307,7 +8636,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7328,7 +8657,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7342,7 +8671,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7363,7 +8692,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -7377,7 +8706,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7398,7 +8727,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -7412,7 +8741,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7447,7 +8776,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7482,7 +8811,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7503,7 +8832,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7517,7 +8846,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7538,7 +8867,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7552,7 +8881,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7573,7 +8902,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7587,7 +8916,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7616,7 +8945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7676,7 +9005,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7690,7 +9019,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7725,7 +9054,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7760,7 +9089,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7795,7 +9124,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7830,7 +9159,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7865,7 +9194,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7900,7 +9229,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7935,7 +9264,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7970,7 +9299,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8005,7 +9334,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8040,7 +9369,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8075,7 +9404,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8110,7 +9439,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8131,7 +9460,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8145,7 +9474,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8166,7 +9495,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8180,7 +9509,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8201,7 +9530,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8215,7 +9544,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8236,7 +9565,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8250,7 +9579,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8279,7 +9608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8353,7 +9682,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8388,7 +9717,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8409,7 +9738,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -8423,7 +9752,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8458,7 +9787,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8493,7 +9822,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8528,7 +9857,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8549,7 +9878,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -8563,7 +9892,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8584,7 +9913,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -8598,7 +9927,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8633,7 +9962,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8654,7 +9983,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8668,7 +9997,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8703,7 +10032,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8738,7 +10067,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8773,7 +10102,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8808,7 +10137,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8829,7 +10158,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8843,7 +10172,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8864,7 +10193,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8878,7 +10207,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8899,7 +10228,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8913,7 +10242,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8940,667 +10269,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId81"/>
-    <hyperlink ref="K3" r:id="rId82"/>
-    <hyperlink ref="K4" r:id="rId83"/>
-    <hyperlink ref="K5" r:id="rId84"/>
-    <hyperlink ref="K6" r:id="rId85"/>
-    <hyperlink ref="K7" r:id="rId86"/>
-    <hyperlink ref="K8" r:id="rId87"/>
-    <hyperlink ref="K9" r:id="rId88"/>
-    <hyperlink ref="K10" r:id="rId89"/>
-    <hyperlink ref="K11" r:id="rId90"/>
-    <hyperlink ref="K12" r:id="rId91"/>
-    <hyperlink ref="K13" r:id="rId92"/>
-    <hyperlink ref="K14" r:id="rId93"/>
-    <hyperlink ref="K15" r:id="rId94"/>
-    <hyperlink ref="K16" r:id="rId95"/>
-    <hyperlink ref="K17" r:id="rId96"/>
-    <hyperlink ref="K18" r:id="rId97"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -20,6 +20,7 @@
     <sheet name="20211121040421 - Nov 21 2021" sheetId="13" r:id="rId14"/>
     <sheet name="20211122040821 - Nov 22 2021" sheetId="14" r:id="rId15"/>
     <sheet name="20211123040345 - Nov 23 2021" sheetId="15" r:id="rId16"/>
+    <sheet name="20211124040349 - Nov 24 2021" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20211121040421 - Nov 21 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20211122040821 - Nov 22 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20211123040345 - Nov 23 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20211124040349 - Nov 24 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -301,8 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -967,23 +970,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId225"/>
-    <hyperlink ref="K3" r:id="rId226"/>
-    <hyperlink ref="K4" r:id="rId227"/>
-    <hyperlink ref="K5" r:id="rId228"/>
-    <hyperlink ref="K6" r:id="rId229"/>
-    <hyperlink ref="K7" r:id="rId230"/>
-    <hyperlink ref="K8" r:id="rId231"/>
-    <hyperlink ref="K9" r:id="rId232"/>
-    <hyperlink ref="K10" r:id="rId233"/>
-    <hyperlink ref="K11" r:id="rId234"/>
-    <hyperlink ref="K12" r:id="rId235"/>
-    <hyperlink ref="K13" r:id="rId236"/>
-    <hyperlink ref="K14" r:id="rId237"/>
-    <hyperlink ref="K15" r:id="rId238"/>
-    <hyperlink ref="K16" r:id="rId239"/>
-    <hyperlink ref="K17" r:id="rId240"/>
-    <hyperlink ref="K18" r:id="rId241"/>
+    <hyperlink ref="K2" r:id="rId241"/>
+    <hyperlink ref="K3" r:id="rId242"/>
+    <hyperlink ref="K4" r:id="rId243"/>
+    <hyperlink ref="K5" r:id="rId244"/>
+    <hyperlink ref="K6" r:id="rId245"/>
+    <hyperlink ref="K7" r:id="rId246"/>
+    <hyperlink ref="K8" r:id="rId247"/>
+    <hyperlink ref="K9" r:id="rId248"/>
+    <hyperlink ref="K10" r:id="rId249"/>
+    <hyperlink ref="K11" r:id="rId250"/>
+    <hyperlink ref="K12" r:id="rId251"/>
+    <hyperlink ref="K13" r:id="rId252"/>
+    <hyperlink ref="K14" r:id="rId253"/>
+    <hyperlink ref="K15" r:id="rId254"/>
+    <hyperlink ref="K16" r:id="rId255"/>
+    <hyperlink ref="K17" r:id="rId256"/>
+    <hyperlink ref="K18" r:id="rId257"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1624,6 +1627,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId97"/>
+    <hyperlink ref="K3" r:id="rId98"/>
+    <hyperlink ref="K4" r:id="rId99"/>
+    <hyperlink ref="K5" r:id="rId100"/>
+    <hyperlink ref="K6" r:id="rId101"/>
+    <hyperlink ref="K7" r:id="rId102"/>
+    <hyperlink ref="K8" r:id="rId103"/>
+    <hyperlink ref="K9" r:id="rId104"/>
+    <hyperlink ref="K10" r:id="rId105"/>
+    <hyperlink ref="K11" r:id="rId106"/>
+    <hyperlink ref="K12" r:id="rId107"/>
+    <hyperlink ref="K13" r:id="rId108"/>
+    <hyperlink ref="K14" r:id="rId109"/>
+    <hyperlink ref="K15" r:id="rId110"/>
+    <hyperlink ref="K16" r:id="rId111"/>
+    <hyperlink ref="K17" r:id="rId112"/>
+    <hyperlink ref="K18" r:id="rId113"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1652,7 +2318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1726,7 +2392,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1761,7 +2427,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1796,7 +2462,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1831,7 +2497,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1866,7 +2532,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1901,7 +2567,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1922,7 +2588,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1936,7 +2602,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1957,7 +2623,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1971,7 +2637,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2006,7 +2672,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2027,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2041,7 +2707,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2076,7 +2742,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2111,7 +2777,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2146,7 +2812,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2181,7 +2847,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2202,7 +2868,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2216,7 +2882,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2237,7 +2903,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2251,7 +2917,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2272,7 +2938,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2286,7 +2952,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2315,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2375,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2389,7 +3055,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2424,7 +3090,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2459,7 +3125,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2494,7 +3160,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2529,7 +3195,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2564,7 +3230,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2585,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2599,7 +3265,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2620,7 +3286,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2634,7 +3300,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2669,7 +3335,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2704,7 +3370,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2739,7 +3405,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2774,7 +3440,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2809,7 +3475,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2830,7 +3496,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2844,7 +3510,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2879,7 +3545,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2900,7 +3566,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2912,9 +3578,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2935,7 +3601,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2949,7 +3615,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2978,7 +3644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3052,7 +3718,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3087,7 +3753,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3108,7 +3774,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3122,7 +3788,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3157,7 +3823,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3192,7 +3858,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3227,7 +3893,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3262,7 +3928,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3297,7 +3963,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3332,7 +3998,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3353,7 +4019,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3367,7 +4033,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3402,7 +4068,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3437,7 +4103,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3458,7 +4124,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3472,7 +4138,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3493,7 +4159,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3507,7 +4173,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3528,7 +4194,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3542,7 +4208,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3563,10 +4229,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3577,7 +4243,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3598,7 +4264,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3612,7 +4278,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3641,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3715,7 +4381,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3750,7 +4416,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3771,7 +4437,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3785,7 +4451,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3820,7 +4486,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3855,7 +4521,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3890,7 +4556,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3925,7 +4591,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3946,7 +4612,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3960,7 +4626,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3995,7 +4661,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4016,7 +4682,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4030,7 +4696,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4065,7 +4731,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4086,7 +4752,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4100,7 +4766,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4135,7 +4801,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4170,7 +4836,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4191,7 +4857,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4205,7 +4871,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4240,7 +4906,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4261,7 +4927,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4275,7 +4941,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4304,7 +4970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4364,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4378,7 +5044,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4413,7 +5079,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4434,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4448,7 +5114,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4483,7 +5149,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4518,7 +5184,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4553,7 +5219,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4588,7 +5254,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4609,7 +5275,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4623,7 +5289,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4658,7 +5324,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4693,7 +5359,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4728,7 +5394,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4763,7 +5429,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4784,7 +5450,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4798,7 +5464,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4833,7 +5499,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4854,10 +5520,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4868,7 +5534,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4889,7 +5555,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4903,7 +5569,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4924,7 +5590,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4938,7 +5604,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5608,6 +6274,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId225"/>
+    <hyperlink ref="K3" r:id="rId226"/>
+    <hyperlink ref="K4" r:id="rId227"/>
+    <hyperlink ref="K5" r:id="rId228"/>
+    <hyperlink ref="K6" r:id="rId229"/>
+    <hyperlink ref="K7" r:id="rId230"/>
+    <hyperlink ref="K8" r:id="rId231"/>
+    <hyperlink ref="K9" r:id="rId232"/>
+    <hyperlink ref="K10" r:id="rId233"/>
+    <hyperlink ref="K11" r:id="rId234"/>
+    <hyperlink ref="K12" r:id="rId235"/>
+    <hyperlink ref="K13" r:id="rId236"/>
+    <hyperlink ref="K14" r:id="rId237"/>
+    <hyperlink ref="K15" r:id="rId238"/>
+    <hyperlink ref="K16" r:id="rId239"/>
+    <hyperlink ref="K17" r:id="rId240"/>
+    <hyperlink ref="K18" r:id="rId241"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId209"/>
     <hyperlink ref="K3" r:id="rId210"/>
     <hyperlink ref="K4" r:id="rId211"/>
@@ -5630,7 +6959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5704,7 +7033,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5725,7 +7054,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -5739,7 +7068,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5760,7 +7089,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -5774,7 +7103,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5809,7 +7138,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5844,7 +7173,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5879,7 +7208,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5914,7 +7243,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5949,7 +7278,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5984,7 +7313,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6005,7 +7334,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6019,7 +7348,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6054,7 +7383,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6089,7 +7418,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6110,7 +7439,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6124,7 +7453,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6159,7 +7488,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6180,7 +7509,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6194,7 +7523,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6215,7 +7544,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6229,7 +7558,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6250,10 +7579,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -6264,7 +7593,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6293,7 +7622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6367,7 +7696,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6402,7 +7731,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6437,7 +7766,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6472,7 +7801,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6507,7 +7836,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6542,7 +7871,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6577,7 +7906,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6612,7 +7941,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6647,7 +7976,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6682,7 +8011,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6717,7 +8046,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6752,7 +8081,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6787,7 +8116,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6822,7 +8151,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6843,7 +8172,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6857,7 +8186,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6878,7 +8207,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6892,7 +8221,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6913,10 +8242,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -6927,7 +8256,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6956,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7030,7 +8359,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7065,7 +8394,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7100,7 +8429,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7135,7 +8464,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7170,7 +8499,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7205,7 +8534,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7240,7 +8569,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7261,7 +8590,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7275,7 +8604,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7310,7 +8639,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7331,7 +8660,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7345,7 +8674,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7380,7 +8709,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7401,7 +8730,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -7415,7 +8744,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7436,7 +8765,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -7450,7 +8779,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7471,7 +8800,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -7485,7 +8814,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7506,7 +8835,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7520,7 +8849,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7541,7 +8870,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7555,7 +8884,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7576,7 +8905,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7590,7 +8919,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7619,7 +8948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7679,7 +9008,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7693,7 +9022,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7714,7 +9043,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7728,7 +9057,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7763,7 +9092,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7798,7 +9127,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7833,7 +9162,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7868,7 +9197,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7889,7 +9218,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7903,7 +9232,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7924,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7938,7 +9267,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7959,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7973,7 +9302,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7994,7 +9323,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8008,7 +9337,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8029,7 +9358,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -8043,7 +9372,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8064,7 +9393,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8078,7 +9407,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8113,7 +9442,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8148,7 +9477,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8169,7 +9498,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8183,7 +9512,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8204,7 +9533,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8218,7 +9547,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8239,7 +9568,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8253,7 +9582,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8282,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8342,7 +9671,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -8356,7 +9685,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8391,7 +9720,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8426,7 +9755,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8461,7 +9790,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8496,7 +9825,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8531,7 +9860,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8566,7 +9895,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8601,7 +9930,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8636,7 +9965,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8671,7 +10000,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8706,7 +10035,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8741,7 +10070,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8776,7 +10105,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8797,7 +10126,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8811,7 +10140,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8832,7 +10161,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8846,7 +10175,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8867,7 +10196,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8881,7 +10210,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8902,7 +10231,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8916,7 +10245,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8945,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9019,7 +10348,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9054,7 +10383,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9075,7 +10404,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -9089,7 +10418,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9124,7 +10453,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9159,7 +10488,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9194,7 +10523,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9215,7 +10544,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -9229,7 +10558,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9250,7 +10579,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9264,7 +10593,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9299,7 +10628,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9320,7 +10649,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -9334,7 +10663,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9369,7 +10698,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9404,7 +10733,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9439,7 +10768,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9474,7 +10803,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9495,7 +10824,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -9509,7 +10838,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9530,7 +10859,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -9544,7 +10873,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9565,7 +10894,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -9579,7 +10908,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9606,667 +10935,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId97"/>
-    <hyperlink ref="K3" r:id="rId98"/>
-    <hyperlink ref="K4" r:id="rId99"/>
-    <hyperlink ref="K5" r:id="rId100"/>
-    <hyperlink ref="K6" r:id="rId101"/>
-    <hyperlink ref="K7" r:id="rId102"/>
-    <hyperlink ref="K8" r:id="rId103"/>
-    <hyperlink ref="K9" r:id="rId104"/>
-    <hyperlink ref="K10" r:id="rId105"/>
-    <hyperlink ref="K11" r:id="rId106"/>
-    <hyperlink ref="K12" r:id="rId107"/>
-    <hyperlink ref="K13" r:id="rId108"/>
-    <hyperlink ref="K14" r:id="rId109"/>
-    <hyperlink ref="K15" r:id="rId110"/>
-    <hyperlink ref="K16" r:id="rId111"/>
-    <hyperlink ref="K17" r:id="rId112"/>
-    <hyperlink ref="K18" r:id="rId113"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -21,6 +21,7 @@
     <sheet name="20211122040821 - Nov 22 2021" sheetId="14" r:id="rId15"/>
     <sheet name="20211123040345 - Nov 23 2021" sheetId="15" r:id="rId16"/>
     <sheet name="20211124040349 - Nov 24 2021" sheetId="16" r:id="rId17"/>
+    <sheet name="20211125040352 - Nov 25 2021" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -39,6 +40,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20211122040821 - Nov 22 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20211123040345 - Nov 23 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20211124040349 - Nov 24 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20211125040352 - Nov 25 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -303,8 +305,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -970,23 +973,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId241"/>
-    <hyperlink ref="K3" r:id="rId242"/>
-    <hyperlink ref="K4" r:id="rId243"/>
-    <hyperlink ref="K5" r:id="rId244"/>
-    <hyperlink ref="K6" r:id="rId245"/>
-    <hyperlink ref="K7" r:id="rId246"/>
-    <hyperlink ref="K8" r:id="rId247"/>
-    <hyperlink ref="K9" r:id="rId248"/>
-    <hyperlink ref="K10" r:id="rId249"/>
-    <hyperlink ref="K11" r:id="rId250"/>
-    <hyperlink ref="K12" r:id="rId251"/>
-    <hyperlink ref="K13" r:id="rId252"/>
-    <hyperlink ref="K14" r:id="rId253"/>
-    <hyperlink ref="K15" r:id="rId254"/>
-    <hyperlink ref="K16" r:id="rId255"/>
-    <hyperlink ref="K17" r:id="rId256"/>
-    <hyperlink ref="K18" r:id="rId257"/>
+    <hyperlink ref="K2" r:id="rId257"/>
+    <hyperlink ref="K3" r:id="rId258"/>
+    <hyperlink ref="K4" r:id="rId259"/>
+    <hyperlink ref="K5" r:id="rId260"/>
+    <hyperlink ref="K6" r:id="rId261"/>
+    <hyperlink ref="K7" r:id="rId262"/>
+    <hyperlink ref="K8" r:id="rId263"/>
+    <hyperlink ref="K9" r:id="rId264"/>
+    <hyperlink ref="K10" r:id="rId265"/>
+    <hyperlink ref="K11" r:id="rId266"/>
+    <hyperlink ref="K12" r:id="rId267"/>
+    <hyperlink ref="K13" r:id="rId268"/>
+    <hyperlink ref="K14" r:id="rId269"/>
+    <hyperlink ref="K15" r:id="rId270"/>
+    <hyperlink ref="K16" r:id="rId271"/>
+    <hyperlink ref="K17" r:id="rId272"/>
+    <hyperlink ref="K18" r:id="rId273"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1627,6 +1630,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId113"/>
+    <hyperlink ref="K3" r:id="rId114"/>
+    <hyperlink ref="K4" r:id="rId115"/>
+    <hyperlink ref="K5" r:id="rId116"/>
+    <hyperlink ref="K6" r:id="rId117"/>
+    <hyperlink ref="K7" r:id="rId118"/>
+    <hyperlink ref="K8" r:id="rId119"/>
+    <hyperlink ref="K9" r:id="rId120"/>
+    <hyperlink ref="K10" r:id="rId121"/>
+    <hyperlink ref="K11" r:id="rId122"/>
+    <hyperlink ref="K12" r:id="rId123"/>
+    <hyperlink ref="K13" r:id="rId124"/>
+    <hyperlink ref="K14" r:id="rId125"/>
+    <hyperlink ref="K15" r:id="rId126"/>
+    <hyperlink ref="K16" r:id="rId127"/>
+    <hyperlink ref="K17" r:id="rId128"/>
+    <hyperlink ref="K18" r:id="rId129"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1655,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1729,7 +2395,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1764,7 +2430,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1799,7 +2465,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1834,7 +2500,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1869,7 +2535,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1904,7 +2570,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1925,7 +2591,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1939,7 +2605,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1960,7 +2626,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1974,7 +2640,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2009,7 +2675,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2030,7 +2696,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2044,7 +2710,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2079,7 +2745,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2114,7 +2780,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2149,7 +2815,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2184,7 +2850,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2205,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2219,7 +2885,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2240,7 +2906,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2254,7 +2920,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2275,7 +2941,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2289,7 +2955,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2318,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2378,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2392,7 +3058,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2427,7 +3093,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2462,7 +3128,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2497,7 +3163,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2532,7 +3198,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2567,7 +3233,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2588,7 +3254,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2602,7 +3268,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2623,7 +3289,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2637,7 +3303,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2672,7 +3338,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2707,7 +3373,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2742,7 +3408,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2777,7 +3443,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2812,7 +3478,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2833,7 +3499,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2847,7 +3513,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2882,7 +3548,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2903,7 +3569,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2915,9 +3581,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2938,7 +3604,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2952,7 +3618,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2981,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3055,7 +3721,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3090,7 +3756,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3111,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3125,7 +3791,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3160,7 +3826,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3195,7 +3861,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3230,7 +3896,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3265,7 +3931,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3300,7 +3966,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3335,7 +4001,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3356,7 +4022,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3370,7 +4036,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3405,7 +4071,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3440,7 +4106,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3461,7 +4127,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3475,7 +4141,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3496,7 +4162,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3510,7 +4176,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3531,7 +4197,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3545,7 +4211,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3566,10 +4232,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3580,7 +4246,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3601,7 +4267,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3615,7 +4281,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3644,7 +4310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3718,7 +4384,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3753,7 +4419,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3774,7 +4440,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3788,7 +4454,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3823,7 +4489,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3858,7 +4524,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3893,7 +4559,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3928,7 +4594,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3949,7 +4615,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3963,7 +4629,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3998,7 +4664,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4019,7 +4685,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4033,7 +4699,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4068,7 +4734,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4089,7 +4755,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4103,7 +4769,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4138,7 +4804,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4173,7 +4839,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4194,7 +4860,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4208,7 +4874,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4243,7 +4909,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4264,7 +4930,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4278,7 +4944,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4307,7 +4973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4367,7 +5033,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4381,7 +5047,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4416,7 +5082,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4437,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4451,7 +5117,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4486,7 +5152,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4521,7 +5187,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4556,7 +5222,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4591,7 +5257,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4612,7 +5278,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4626,7 +5292,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4661,7 +5327,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4696,7 +5362,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4731,7 +5397,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4766,7 +5432,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4787,7 +5453,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4801,7 +5467,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4836,7 +5502,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4857,10 +5523,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4871,7 +5537,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4892,7 +5558,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4906,7 +5572,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4927,7 +5593,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4941,7 +5607,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4970,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5044,7 +5710,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5079,7 +5745,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5114,7 +5780,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5149,7 +5815,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5184,7 +5850,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5219,7 +5885,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5254,7 +5920,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5289,7 +5955,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5324,7 +5990,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5359,7 +6025,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5394,7 +6060,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5415,7 +6081,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5429,7 +6095,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5450,7 +6116,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5464,7 +6130,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5499,7 +6165,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5520,7 +6186,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5534,7 +6200,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5555,7 +6221,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5569,7 +6235,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5590,7 +6256,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5604,7 +6270,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6274,6 +6940,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId241"/>
+    <hyperlink ref="K3" r:id="rId242"/>
+    <hyperlink ref="K4" r:id="rId243"/>
+    <hyperlink ref="K5" r:id="rId244"/>
+    <hyperlink ref="K6" r:id="rId245"/>
+    <hyperlink ref="K7" r:id="rId246"/>
+    <hyperlink ref="K8" r:id="rId247"/>
+    <hyperlink ref="K9" r:id="rId248"/>
+    <hyperlink ref="K10" r:id="rId249"/>
+    <hyperlink ref="K11" r:id="rId250"/>
+    <hyperlink ref="K12" r:id="rId251"/>
+    <hyperlink ref="K13" r:id="rId252"/>
+    <hyperlink ref="K14" r:id="rId253"/>
+    <hyperlink ref="K15" r:id="rId254"/>
+    <hyperlink ref="K16" r:id="rId255"/>
+    <hyperlink ref="K17" r:id="rId256"/>
+    <hyperlink ref="K18" r:id="rId257"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId225"/>
     <hyperlink ref="K3" r:id="rId226"/>
     <hyperlink ref="K4" r:id="rId227"/>
@@ -6296,7 +7625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6370,7 +7699,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6391,7 +7720,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -6405,7 +7734,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6426,7 +7755,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -6440,7 +7769,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6475,7 +7804,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6510,7 +7839,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6545,7 +7874,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6580,7 +7909,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6615,7 +7944,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6650,7 +7979,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6671,7 +8000,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6685,7 +8014,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6720,7 +8049,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6755,7 +8084,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6776,7 +8105,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6790,7 +8119,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6825,7 +8154,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6846,7 +8175,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -6860,7 +8189,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6881,7 +8210,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -6895,7 +8224,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6916,10 +8245,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -6930,7 +8259,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6959,7 +8288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7033,7 +8362,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7068,7 +8397,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7103,7 +8432,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7138,7 +8467,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7173,7 +8502,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7208,7 +8537,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7243,7 +8572,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7278,7 +8607,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7313,7 +8642,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7348,7 +8677,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7383,7 +8712,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7418,7 +8747,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7453,7 +8782,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7488,7 +8817,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7509,7 +8838,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7523,7 +8852,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7544,7 +8873,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7558,7 +8887,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7579,10 +8908,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -7593,7 +8922,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7622,7 +8951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7696,7 +9025,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7731,7 +9060,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7766,7 +9095,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7801,7 +9130,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7836,7 +9165,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7871,7 +9200,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7906,7 +9235,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7927,7 +9256,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7941,7 +9270,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7976,7 +9305,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7997,7 +9326,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8011,7 +9340,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8046,7 +9375,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8067,7 +9396,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8081,7 +9410,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8102,7 +9431,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8116,7 +9445,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8137,7 +9466,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8151,7 +9480,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8172,7 +9501,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8186,7 +9515,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8207,7 +9536,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8221,7 +9550,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8242,7 +9571,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8256,7 +9585,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8285,7 +9614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8345,7 +9674,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -8359,7 +9688,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8380,7 +9709,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -8394,7 +9723,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8429,7 +9758,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8464,7 +9793,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8499,7 +9828,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8534,7 +9863,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8555,7 +9884,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -8569,7 +9898,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8590,7 +9919,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -8604,7 +9933,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8625,7 +9954,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -8639,7 +9968,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8660,7 +9989,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8674,7 +10003,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8695,7 +10024,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -8709,7 +10038,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8730,7 +10059,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8744,7 +10073,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8779,7 +10108,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8814,7 +10143,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8835,7 +10164,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8849,7 +10178,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8870,7 +10199,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8884,7 +10213,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8905,7 +10234,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8919,7 +10248,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8948,7 +10277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9008,7 +10337,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -9022,7 +10351,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9057,7 +10386,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9092,7 +10421,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9127,7 +10456,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9162,7 +10491,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9197,7 +10526,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9232,7 +10561,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9267,7 +10596,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9302,7 +10631,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9337,7 +10666,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9372,7 +10701,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9407,7 +10736,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9442,7 +10771,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9463,7 +10792,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -9477,7 +10806,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9498,7 +10827,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -9512,7 +10841,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9533,7 +10862,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -9547,7 +10876,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9568,7 +10897,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -9582,7 +10911,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9611,7 +10940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9685,7 +11014,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9720,7 +11049,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9741,7 +11070,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -9755,7 +11084,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9790,7 +11119,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9825,7 +11154,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9860,7 +11189,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9881,7 +11210,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -9895,7 +11224,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9916,7 +11245,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9930,7 +11259,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9965,7 +11294,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9986,7 +11315,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10000,7 +11329,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10035,7 +11364,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10070,7 +11399,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10105,7 +11434,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10140,7 +11469,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10161,7 +11490,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10175,7 +11504,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10196,7 +11525,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10210,7 +11539,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10231,7 +11560,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10245,7 +11574,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10272,667 +11601,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId113"/>
-    <hyperlink ref="K3" r:id="rId114"/>
-    <hyperlink ref="K4" r:id="rId115"/>
-    <hyperlink ref="K5" r:id="rId116"/>
-    <hyperlink ref="K6" r:id="rId117"/>
-    <hyperlink ref="K7" r:id="rId118"/>
-    <hyperlink ref="K8" r:id="rId119"/>
-    <hyperlink ref="K9" r:id="rId120"/>
-    <hyperlink ref="K10" r:id="rId121"/>
-    <hyperlink ref="K11" r:id="rId122"/>
-    <hyperlink ref="K12" r:id="rId123"/>
-    <hyperlink ref="K13" r:id="rId124"/>
-    <hyperlink ref="K14" r:id="rId125"/>
-    <hyperlink ref="K15" r:id="rId126"/>
-    <hyperlink ref="K16" r:id="rId127"/>
-    <hyperlink ref="K17" r:id="rId128"/>
-    <hyperlink ref="K18" r:id="rId129"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -22,6 +22,7 @@
     <sheet name="20211123040345 - Nov 23 2021" sheetId="15" r:id="rId16"/>
     <sheet name="20211124040349 - Nov 24 2021" sheetId="16" r:id="rId17"/>
     <sheet name="20211125040352 - Nov 25 2021" sheetId="17" r:id="rId18"/>
+    <sheet name="20211126040336 - Nov 26 2021" sheetId="18" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20211123040345 - Nov 23 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20211124040349 - Nov 24 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20211125040352 - Nov 25 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20211126040336 - Nov 26 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -305,8 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -973,23 +976,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId257"/>
-    <hyperlink ref="K3" r:id="rId258"/>
-    <hyperlink ref="K4" r:id="rId259"/>
-    <hyperlink ref="K5" r:id="rId260"/>
-    <hyperlink ref="K6" r:id="rId261"/>
-    <hyperlink ref="K7" r:id="rId262"/>
-    <hyperlink ref="K8" r:id="rId263"/>
-    <hyperlink ref="K9" r:id="rId264"/>
-    <hyperlink ref="K10" r:id="rId265"/>
-    <hyperlink ref="K11" r:id="rId266"/>
-    <hyperlink ref="K12" r:id="rId267"/>
-    <hyperlink ref="K13" r:id="rId268"/>
-    <hyperlink ref="K14" r:id="rId269"/>
-    <hyperlink ref="K15" r:id="rId270"/>
-    <hyperlink ref="K16" r:id="rId271"/>
-    <hyperlink ref="K17" r:id="rId272"/>
-    <hyperlink ref="K18" r:id="rId273"/>
+    <hyperlink ref="K2" r:id="rId273"/>
+    <hyperlink ref="K3" r:id="rId274"/>
+    <hyperlink ref="K4" r:id="rId275"/>
+    <hyperlink ref="K5" r:id="rId276"/>
+    <hyperlink ref="K6" r:id="rId277"/>
+    <hyperlink ref="K7" r:id="rId278"/>
+    <hyperlink ref="K8" r:id="rId279"/>
+    <hyperlink ref="K9" r:id="rId280"/>
+    <hyperlink ref="K10" r:id="rId281"/>
+    <hyperlink ref="K11" r:id="rId282"/>
+    <hyperlink ref="K12" r:id="rId283"/>
+    <hyperlink ref="K13" r:id="rId284"/>
+    <hyperlink ref="K14" r:id="rId285"/>
+    <hyperlink ref="K15" r:id="rId286"/>
+    <hyperlink ref="K16" r:id="rId287"/>
+    <hyperlink ref="K17" r:id="rId288"/>
+    <hyperlink ref="K18" r:id="rId289"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1630,6 +1633,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId129"/>
+    <hyperlink ref="K3" r:id="rId130"/>
+    <hyperlink ref="K4" r:id="rId131"/>
+    <hyperlink ref="K5" r:id="rId132"/>
+    <hyperlink ref="K6" r:id="rId133"/>
+    <hyperlink ref="K7" r:id="rId134"/>
+    <hyperlink ref="K8" r:id="rId135"/>
+    <hyperlink ref="K9" r:id="rId136"/>
+    <hyperlink ref="K10" r:id="rId137"/>
+    <hyperlink ref="K11" r:id="rId138"/>
+    <hyperlink ref="K12" r:id="rId139"/>
+    <hyperlink ref="K13" r:id="rId140"/>
+    <hyperlink ref="K14" r:id="rId141"/>
+    <hyperlink ref="K15" r:id="rId142"/>
+    <hyperlink ref="K16" r:id="rId143"/>
+    <hyperlink ref="K17" r:id="rId144"/>
+    <hyperlink ref="K18" r:id="rId145"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1658,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1732,7 +2398,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1767,7 +2433,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1802,7 +2468,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1837,7 +2503,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1872,7 +2538,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1907,7 +2573,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1928,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1942,7 +2608,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1963,7 +2629,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1977,7 +2643,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2012,7 +2678,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2033,7 +2699,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2047,7 +2713,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2082,7 +2748,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2117,7 +2783,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2152,7 +2818,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2187,7 +2853,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2208,7 +2874,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2222,7 +2888,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2243,7 +2909,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2257,7 +2923,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2278,7 +2944,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2292,7 +2958,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2321,7 +2987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2381,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2395,7 +3061,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2430,7 +3096,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2465,7 +3131,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2500,7 +3166,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2535,7 +3201,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2570,7 +3236,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2591,7 +3257,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2605,7 +3271,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2626,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2640,7 +3306,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2675,7 +3341,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2710,7 +3376,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2745,7 +3411,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2780,7 +3446,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2815,7 +3481,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2836,7 +3502,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2850,7 +3516,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2885,7 +3551,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2906,7 +3572,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2918,9 +3584,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2941,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2955,7 +3621,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2984,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3058,7 +3724,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3093,7 +3759,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3114,7 +3780,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3128,7 +3794,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3163,7 +3829,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3198,7 +3864,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3233,7 +3899,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3268,7 +3934,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3303,7 +3969,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3338,7 +4004,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3359,7 +4025,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3373,7 +4039,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3408,7 +4074,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3443,7 +4109,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3464,7 +4130,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3478,7 +4144,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3499,7 +4165,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3513,7 +4179,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3534,7 +4200,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3548,7 +4214,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3569,10 +4235,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3583,7 +4249,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3604,7 +4270,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3618,7 +4284,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3647,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3721,7 +4387,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3756,7 +4422,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3777,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3791,7 +4457,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3826,7 +4492,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3861,7 +4527,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3896,7 +4562,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3931,7 +4597,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3952,7 +4618,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3966,7 +4632,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4001,7 +4667,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4022,7 +4688,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4036,7 +4702,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4071,7 +4737,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4092,7 +4758,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4106,7 +4772,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4141,7 +4807,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4176,7 +4842,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4197,7 +4863,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4211,7 +4877,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4246,7 +4912,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4267,7 +4933,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4281,7 +4947,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4310,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4370,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4384,7 +5050,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4419,7 +5085,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4440,7 +5106,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4454,7 +5120,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4489,7 +5155,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4524,7 +5190,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4559,7 +5225,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4594,7 +5260,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4615,7 +5281,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4629,7 +5295,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4664,7 +5330,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4699,7 +5365,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4734,7 +5400,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4769,7 +5435,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4790,7 +5456,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4804,7 +5470,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4839,7 +5505,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4860,10 +5526,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4874,7 +5540,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4895,7 +5561,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4909,7 +5575,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4930,7 +5596,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4944,7 +5610,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4973,7 +5639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5047,7 +5713,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5082,7 +5748,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5117,7 +5783,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5152,7 +5818,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5187,7 +5853,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5222,7 +5888,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5257,7 +5923,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5292,7 +5958,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5327,7 +5993,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5362,7 +6028,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5397,7 +6063,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5418,7 +6084,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5432,7 +6098,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5453,7 +6119,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5467,7 +6133,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5502,7 +6168,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5523,7 +6189,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5537,7 +6203,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5558,7 +6224,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5572,7 +6238,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5593,7 +6259,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5607,7 +6273,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5636,7 +6302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5710,7 +6376,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5745,7 +6411,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5780,7 +6446,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5815,7 +6481,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5850,7 +6516,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5885,7 +6551,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5920,7 +6586,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5955,7 +6621,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5990,7 +6656,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6011,7 +6677,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6025,7 +6691,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6060,7 +6726,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6095,7 +6761,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6116,7 +6782,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6130,7 +6796,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6151,7 +6817,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6165,7 +6831,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6200,7 +6866,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6221,7 +6887,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6235,7 +6901,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6256,7 +6922,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6270,7 +6936,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6940,6 +7606,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId257"/>
+    <hyperlink ref="K3" r:id="rId258"/>
+    <hyperlink ref="K4" r:id="rId259"/>
+    <hyperlink ref="K5" r:id="rId260"/>
+    <hyperlink ref="K6" r:id="rId261"/>
+    <hyperlink ref="K7" r:id="rId262"/>
+    <hyperlink ref="K8" r:id="rId263"/>
+    <hyperlink ref="K9" r:id="rId264"/>
+    <hyperlink ref="K10" r:id="rId265"/>
+    <hyperlink ref="K11" r:id="rId266"/>
+    <hyperlink ref="K12" r:id="rId267"/>
+    <hyperlink ref="K13" r:id="rId268"/>
+    <hyperlink ref="K14" r:id="rId269"/>
+    <hyperlink ref="K15" r:id="rId270"/>
+    <hyperlink ref="K16" r:id="rId271"/>
+    <hyperlink ref="K17" r:id="rId272"/>
+    <hyperlink ref="K18" r:id="rId273"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId241"/>
     <hyperlink ref="K3" r:id="rId242"/>
     <hyperlink ref="K4" r:id="rId243"/>
@@ -6962,7 +8291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7036,7 +8365,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7057,7 +8386,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7071,7 +8400,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7092,7 +8421,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7106,7 +8435,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7141,7 +8470,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7176,7 +8505,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7211,7 +8540,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7246,7 +8575,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7281,7 +8610,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7316,7 +8645,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7337,7 +8666,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7351,7 +8680,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7386,7 +8715,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7421,7 +8750,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7442,7 +8771,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -7456,7 +8785,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7491,7 +8820,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7512,7 +8841,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -7526,7 +8855,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7547,7 +8876,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -7561,7 +8890,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7582,10 +8911,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -7596,7 +8925,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7625,7 +8954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7699,7 +9028,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7734,7 +9063,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7769,7 +9098,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7804,7 +9133,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7839,7 +9168,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7874,7 +9203,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7909,7 +9238,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7944,7 +9273,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7979,7 +9308,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8014,7 +9343,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8049,7 +9378,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8084,7 +9413,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8119,7 +9448,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8154,7 +9483,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8175,7 +9504,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8189,7 +9518,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8210,7 +9539,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8224,7 +9553,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8245,10 +9574,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -8259,7 +9588,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8288,7 +9617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8362,7 +9691,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8397,7 +9726,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8432,7 +9761,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8467,7 +9796,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8502,7 +9831,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8537,7 +9866,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8572,7 +9901,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8593,7 +9922,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -8607,7 +9936,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8642,7 +9971,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8663,7 +9992,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8677,7 +10006,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8712,7 +10041,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8733,7 +10062,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8747,7 +10076,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8768,7 +10097,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8782,7 +10111,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8803,7 +10132,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8817,7 +10146,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8838,7 +10167,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8852,7 +10181,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8873,7 +10202,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8887,7 +10216,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8908,7 +10237,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8922,7 +10251,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8951,7 +10280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9011,7 +10340,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -9025,7 +10354,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9046,7 +10375,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -9060,7 +10389,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9095,7 +10424,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9130,7 +10459,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9165,7 +10494,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9200,7 +10529,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9221,7 +10550,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -9235,7 +10564,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9256,7 +10585,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9270,7 +10599,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9291,7 +10620,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -9305,7 +10634,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9326,7 +10655,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -9340,7 +10669,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9361,7 +10690,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -9375,7 +10704,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9396,7 +10725,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -9410,7 +10739,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9445,7 +10774,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9480,7 +10809,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9501,7 +10830,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -9515,7 +10844,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9536,7 +10865,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -9550,7 +10879,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9571,7 +10900,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -9585,7 +10914,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9614,7 +10943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9674,7 +11003,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -9688,7 +11017,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9723,7 +11052,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9758,7 +11087,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9793,7 +11122,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9828,7 +11157,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9863,7 +11192,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9898,7 +11227,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9933,7 +11262,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9968,7 +11297,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10003,7 +11332,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10038,7 +11367,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10073,7 +11402,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10108,7 +11437,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10129,7 +11458,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -10143,7 +11472,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10164,7 +11493,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10178,7 +11507,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10199,7 +11528,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10213,7 +11542,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10234,7 +11563,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10248,7 +11577,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10277,7 +11606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -10351,7 +11680,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10386,7 +11715,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10407,7 +11736,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -10421,7 +11750,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10456,7 +11785,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10491,7 +11820,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10526,7 +11855,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10547,7 +11876,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -10561,7 +11890,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10582,7 +11911,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -10596,7 +11925,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10631,7 +11960,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10652,7 +11981,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10666,7 +11995,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10701,7 +12030,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10736,7 +12065,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10771,7 +12100,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10806,7 +12135,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10827,7 +12156,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10841,7 +12170,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10862,7 +12191,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10876,7 +12205,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10897,7 +12226,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10911,7 +12240,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10938,667 +12267,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId129"/>
-    <hyperlink ref="K3" r:id="rId130"/>
-    <hyperlink ref="K4" r:id="rId131"/>
-    <hyperlink ref="K5" r:id="rId132"/>
-    <hyperlink ref="K6" r:id="rId133"/>
-    <hyperlink ref="K7" r:id="rId134"/>
-    <hyperlink ref="K8" r:id="rId135"/>
-    <hyperlink ref="K9" r:id="rId136"/>
-    <hyperlink ref="K10" r:id="rId137"/>
-    <hyperlink ref="K11" r:id="rId138"/>
-    <hyperlink ref="K12" r:id="rId139"/>
-    <hyperlink ref="K13" r:id="rId140"/>
-    <hyperlink ref="K14" r:id="rId141"/>
-    <hyperlink ref="K15" r:id="rId142"/>
-    <hyperlink ref="K16" r:id="rId143"/>
-    <hyperlink ref="K17" r:id="rId144"/>
-    <hyperlink ref="K18" r:id="rId145"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -23,6 +23,7 @@
     <sheet name="20211124040349 - Nov 24 2021" sheetId="16" r:id="rId17"/>
     <sheet name="20211125040352 - Nov 25 2021" sheetId="17" r:id="rId18"/>
     <sheet name="20211126040336 - Nov 26 2021" sheetId="18" r:id="rId19"/>
+    <sheet name="20211127040358 - Nov 27 2021" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -43,6 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20211124040349 - Nov 24 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20211125040352 - Nov 25 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20211126040336 - Nov 26 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20211127040358 - Nov 27 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -307,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -976,23 +979,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId273"/>
-    <hyperlink ref="K3" r:id="rId274"/>
-    <hyperlink ref="K4" r:id="rId275"/>
-    <hyperlink ref="K5" r:id="rId276"/>
-    <hyperlink ref="K6" r:id="rId277"/>
-    <hyperlink ref="K7" r:id="rId278"/>
-    <hyperlink ref="K8" r:id="rId279"/>
-    <hyperlink ref="K9" r:id="rId280"/>
-    <hyperlink ref="K10" r:id="rId281"/>
-    <hyperlink ref="K11" r:id="rId282"/>
-    <hyperlink ref="K12" r:id="rId283"/>
-    <hyperlink ref="K13" r:id="rId284"/>
-    <hyperlink ref="K14" r:id="rId285"/>
-    <hyperlink ref="K15" r:id="rId286"/>
-    <hyperlink ref="K16" r:id="rId287"/>
-    <hyperlink ref="K17" r:id="rId288"/>
-    <hyperlink ref="K18" r:id="rId289"/>
+    <hyperlink ref="K2" r:id="rId289"/>
+    <hyperlink ref="K3" r:id="rId290"/>
+    <hyperlink ref="K4" r:id="rId291"/>
+    <hyperlink ref="K5" r:id="rId292"/>
+    <hyperlink ref="K6" r:id="rId293"/>
+    <hyperlink ref="K7" r:id="rId294"/>
+    <hyperlink ref="K8" r:id="rId295"/>
+    <hyperlink ref="K9" r:id="rId296"/>
+    <hyperlink ref="K10" r:id="rId297"/>
+    <hyperlink ref="K11" r:id="rId298"/>
+    <hyperlink ref="K12" r:id="rId299"/>
+    <hyperlink ref="K13" r:id="rId300"/>
+    <hyperlink ref="K14" r:id="rId301"/>
+    <hyperlink ref="K15" r:id="rId302"/>
+    <hyperlink ref="K16" r:id="rId303"/>
+    <hyperlink ref="K17" r:id="rId304"/>
+    <hyperlink ref="K18" r:id="rId305"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1633,6 +1636,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId145"/>
+    <hyperlink ref="K3" r:id="rId146"/>
+    <hyperlink ref="K4" r:id="rId147"/>
+    <hyperlink ref="K5" r:id="rId148"/>
+    <hyperlink ref="K6" r:id="rId149"/>
+    <hyperlink ref="K7" r:id="rId150"/>
+    <hyperlink ref="K8" r:id="rId151"/>
+    <hyperlink ref="K9" r:id="rId152"/>
+    <hyperlink ref="K10" r:id="rId153"/>
+    <hyperlink ref="K11" r:id="rId154"/>
+    <hyperlink ref="K12" r:id="rId155"/>
+    <hyperlink ref="K13" r:id="rId156"/>
+    <hyperlink ref="K14" r:id="rId157"/>
+    <hyperlink ref="K15" r:id="rId158"/>
+    <hyperlink ref="K16" r:id="rId159"/>
+    <hyperlink ref="K17" r:id="rId160"/>
+    <hyperlink ref="K18" r:id="rId161"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1661,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1735,7 +2401,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1770,7 +2436,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1805,7 +2471,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1840,7 +2506,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1875,7 +2541,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1910,7 +2576,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1931,7 +2597,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1945,7 +2611,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1966,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1980,7 +2646,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2015,7 +2681,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2036,7 +2702,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2050,7 +2716,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2085,7 +2751,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2120,7 +2786,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2155,7 +2821,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2190,7 +2856,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2211,7 +2877,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2225,7 +2891,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2246,7 +2912,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2260,7 +2926,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2281,7 +2947,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2295,7 +2961,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2324,7 +2990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2384,7 +3050,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2398,7 +3064,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2433,7 +3099,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2468,7 +3134,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2503,7 +3169,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2538,7 +3204,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2573,7 +3239,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2594,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2608,7 +3274,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2629,7 +3295,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2643,7 +3309,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2678,7 +3344,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2713,7 +3379,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2748,7 +3414,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2783,7 +3449,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2818,7 +3484,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2839,7 +3505,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2853,7 +3519,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2888,7 +3554,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2909,7 +3575,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2921,9 +3587,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2944,7 +3610,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2958,7 +3624,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2987,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3061,7 +3727,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3096,7 +3762,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3117,7 +3783,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3131,7 +3797,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3166,7 +3832,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3201,7 +3867,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3236,7 +3902,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3271,7 +3937,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3306,7 +3972,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3341,7 +4007,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3362,7 +4028,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3376,7 +4042,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3411,7 +4077,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3446,7 +4112,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3467,7 +4133,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3481,7 +4147,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3502,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3516,7 +4182,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3537,7 +4203,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3551,7 +4217,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3572,10 +4238,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3586,7 +4252,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3607,7 +4273,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3621,7 +4287,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3650,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3724,7 +4390,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3759,7 +4425,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3780,7 +4446,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3794,7 +4460,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3829,7 +4495,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3864,7 +4530,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3899,7 +4565,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3934,7 +4600,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3955,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3969,7 +4635,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4004,7 +4670,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4025,7 +4691,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4039,7 +4705,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4074,7 +4740,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4095,7 +4761,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4109,7 +4775,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4144,7 +4810,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4179,7 +4845,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4200,7 +4866,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4214,7 +4880,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4249,7 +4915,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4270,7 +4936,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4284,7 +4950,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4313,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4373,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4387,7 +5053,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4422,7 +5088,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4443,7 +5109,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4457,7 +5123,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4492,7 +5158,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4527,7 +5193,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4562,7 +5228,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4597,7 +5263,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4618,7 +5284,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4632,7 +5298,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4667,7 +5333,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4702,7 +5368,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4737,7 +5403,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4772,7 +5438,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4793,7 +5459,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4807,7 +5473,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4842,7 +5508,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4863,10 +5529,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4877,7 +5543,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4898,7 +5564,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4912,7 +5578,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4933,7 +5599,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4947,7 +5613,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4976,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5050,7 +5716,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5085,7 +5751,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5120,7 +5786,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5155,7 +5821,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5190,7 +5856,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5225,7 +5891,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5260,7 +5926,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5295,7 +5961,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5330,7 +5996,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5365,7 +6031,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5400,7 +6066,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5421,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5435,7 +6101,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5456,7 +6122,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5470,7 +6136,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5505,7 +6171,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5526,7 +6192,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5540,7 +6206,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5561,7 +6227,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5575,7 +6241,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5596,7 +6262,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5610,7 +6276,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5639,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5713,7 +6379,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5748,7 +6414,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5783,7 +6449,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5818,7 +6484,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5853,7 +6519,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5888,7 +6554,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5923,7 +6589,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5958,7 +6624,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5993,7 +6659,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6014,7 +6680,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6028,7 +6694,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6063,7 +6729,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6098,7 +6764,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6119,7 +6785,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6133,7 +6799,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6154,7 +6820,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6168,7 +6834,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6203,7 +6869,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6224,7 +6890,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6238,7 +6904,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6259,7 +6925,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6273,7 +6939,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6302,7 +6968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6376,7 +7042,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6411,7 +7077,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6446,7 +7112,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6481,7 +7147,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6516,7 +7182,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6551,7 +7217,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6572,7 +7238,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6586,7 +7252,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6621,7 +7287,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6656,7 +7322,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6677,7 +7343,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6691,7 +7357,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6726,7 +7392,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6747,7 +7413,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6761,7 +7427,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6796,7 +7462,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6817,7 +7483,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6831,7 +7497,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6852,7 +7518,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -6866,7 +7532,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6887,7 +7553,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6901,7 +7567,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6922,7 +7588,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6936,7 +7602,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7606,6 +8272,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId273"/>
+    <hyperlink ref="K3" r:id="rId274"/>
+    <hyperlink ref="K4" r:id="rId275"/>
+    <hyperlink ref="K5" r:id="rId276"/>
+    <hyperlink ref="K6" r:id="rId277"/>
+    <hyperlink ref="K7" r:id="rId278"/>
+    <hyperlink ref="K8" r:id="rId279"/>
+    <hyperlink ref="K9" r:id="rId280"/>
+    <hyperlink ref="K10" r:id="rId281"/>
+    <hyperlink ref="K11" r:id="rId282"/>
+    <hyperlink ref="K12" r:id="rId283"/>
+    <hyperlink ref="K13" r:id="rId284"/>
+    <hyperlink ref="K14" r:id="rId285"/>
+    <hyperlink ref="K15" r:id="rId286"/>
+    <hyperlink ref="K16" r:id="rId287"/>
+    <hyperlink ref="K17" r:id="rId288"/>
+    <hyperlink ref="K18" r:id="rId289"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>421</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>823</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>806</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>340</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>451</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>867</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>465</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId257"/>
     <hyperlink ref="K3" r:id="rId258"/>
     <hyperlink ref="K4" r:id="rId259"/>
@@ -7628,7 +8957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7702,7 +9031,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7723,7 +9052,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7737,7 +9066,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7758,7 +9087,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7772,7 +9101,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7807,7 +9136,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7842,7 +9171,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7877,7 +9206,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7912,7 +9241,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7947,7 +9276,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7982,7 +9311,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8003,7 +9332,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8017,7 +9346,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8052,7 +9381,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8087,7 +9416,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8108,7 +9437,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8122,7 +9451,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8157,7 +9486,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8178,7 +9507,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8192,7 +9521,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8213,7 +9542,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8227,7 +9556,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8248,10 +9577,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -8262,7 +9591,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8291,7 +9620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8365,7 +9694,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8400,7 +9729,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8435,7 +9764,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8470,7 +9799,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8505,7 +9834,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8540,7 +9869,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8575,7 +9904,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8610,7 +9939,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8645,7 +9974,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8680,7 +10009,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8715,7 +10044,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8750,7 +10079,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8785,7 +10114,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8820,7 +10149,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8841,7 +10170,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8855,7 +10184,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8876,7 +10205,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8890,7 +10219,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8911,10 +10240,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -8925,7 +10254,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8954,7 +10283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9028,7 +10357,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9063,7 +10392,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9098,7 +10427,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9133,7 +10462,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9168,7 +10497,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9203,7 +10532,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9238,7 +10567,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9259,7 +10588,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9273,7 +10602,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9308,7 +10637,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9329,7 +10658,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -9343,7 +10672,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9378,7 +10707,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9399,7 +10728,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -9413,7 +10742,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9434,7 +10763,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -9448,7 +10777,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9469,7 +10798,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -9483,7 +10812,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9504,7 +10833,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -9518,7 +10847,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9539,7 +10868,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -9553,7 +10882,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9574,7 +10903,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -9588,7 +10917,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9617,7 +10946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9677,7 +11006,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -9691,7 +11020,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9712,7 +11041,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -9726,7 +11055,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9761,7 +11090,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9796,7 +11125,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9831,7 +11160,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9866,7 +11195,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9887,7 +11216,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -9901,7 +11230,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9922,7 +11251,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9936,7 +11265,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9957,7 +11286,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -9971,7 +11300,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9992,7 +11321,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10006,7 +11335,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10027,7 +11356,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -10041,7 +11370,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10062,7 +11391,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -10076,7 +11405,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10111,7 +11440,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10146,7 +11475,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10167,7 +11496,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10181,7 +11510,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10202,7 +11531,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10216,7 +11545,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10237,7 +11566,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10251,7 +11580,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10280,7 +11609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -10340,7 +11669,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -10354,7 +11683,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10389,7 +11718,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10424,7 +11753,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10459,7 +11788,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10494,7 +11823,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10529,7 +11858,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10564,7 +11893,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10599,7 +11928,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10634,7 +11963,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10669,7 +11998,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10704,7 +12033,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10739,7 +12068,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10774,7 +12103,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10795,7 +12124,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -10809,7 +12138,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10830,7 +12159,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10844,7 +12173,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10865,7 +12194,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10879,7 +12208,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10900,7 +12229,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10914,7 +12243,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10943,7 +12272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11017,7 +12346,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11052,7 +12381,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11073,7 +12402,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -11087,7 +12416,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11122,7 +12451,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11157,7 +12486,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11192,7 +12521,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11213,7 +12542,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -11227,7 +12556,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11248,7 +12577,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -11262,7 +12591,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11297,7 +12626,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11318,7 +12647,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -11332,7 +12661,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11367,7 +12696,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11402,7 +12731,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11437,7 +12766,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11472,7 +12801,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11493,7 +12822,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -11507,7 +12836,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11528,7 +12857,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -11542,7 +12871,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11563,7 +12892,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -11577,7 +12906,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11604,667 +12933,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId145"/>
-    <hyperlink ref="K3" r:id="rId146"/>
-    <hyperlink ref="K4" r:id="rId147"/>
-    <hyperlink ref="K5" r:id="rId148"/>
-    <hyperlink ref="K6" r:id="rId149"/>
-    <hyperlink ref="K7" r:id="rId150"/>
-    <hyperlink ref="K8" r:id="rId151"/>
-    <hyperlink ref="K9" r:id="rId152"/>
-    <hyperlink ref="K10" r:id="rId153"/>
-    <hyperlink ref="K11" r:id="rId154"/>
-    <hyperlink ref="K12" r:id="rId155"/>
-    <hyperlink ref="K13" r:id="rId156"/>
-    <hyperlink ref="K14" r:id="rId157"/>
-    <hyperlink ref="K15" r:id="rId158"/>
-    <hyperlink ref="K16" r:id="rId159"/>
-    <hyperlink ref="K17" r:id="rId160"/>
-    <hyperlink ref="K18" r:id="rId161"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -24,6 +24,7 @@
     <sheet name="20211125040352 - Nov 25 2021" sheetId="17" r:id="rId18"/>
     <sheet name="20211126040336 - Nov 26 2021" sheetId="18" r:id="rId19"/>
     <sheet name="20211127040358 - Nov 27 2021" sheetId="19" r:id="rId20"/>
+    <sheet name="20211128040418 - Nov 28 2021" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -45,6 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20211125040352 - Nov 25 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20211126040336 - Nov 26 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20211127040358 - Nov 27 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20211128040418 - Nov 28 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -309,8 +311,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -979,23 +982,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId289"/>
-    <hyperlink ref="K3" r:id="rId290"/>
-    <hyperlink ref="K4" r:id="rId291"/>
-    <hyperlink ref="K5" r:id="rId292"/>
-    <hyperlink ref="K6" r:id="rId293"/>
-    <hyperlink ref="K7" r:id="rId294"/>
-    <hyperlink ref="K8" r:id="rId295"/>
-    <hyperlink ref="K9" r:id="rId296"/>
-    <hyperlink ref="K10" r:id="rId297"/>
-    <hyperlink ref="K11" r:id="rId298"/>
-    <hyperlink ref="K12" r:id="rId299"/>
-    <hyperlink ref="K13" r:id="rId300"/>
-    <hyperlink ref="K14" r:id="rId301"/>
-    <hyperlink ref="K15" r:id="rId302"/>
-    <hyperlink ref="K16" r:id="rId303"/>
-    <hyperlink ref="K17" r:id="rId304"/>
-    <hyperlink ref="K18" r:id="rId305"/>
+    <hyperlink ref="K2" r:id="rId305"/>
+    <hyperlink ref="K3" r:id="rId306"/>
+    <hyperlink ref="K4" r:id="rId307"/>
+    <hyperlink ref="K5" r:id="rId308"/>
+    <hyperlink ref="K6" r:id="rId309"/>
+    <hyperlink ref="K7" r:id="rId310"/>
+    <hyperlink ref="K8" r:id="rId311"/>
+    <hyperlink ref="K9" r:id="rId312"/>
+    <hyperlink ref="K10" r:id="rId313"/>
+    <hyperlink ref="K11" r:id="rId314"/>
+    <hyperlink ref="K12" r:id="rId315"/>
+    <hyperlink ref="K13" r:id="rId316"/>
+    <hyperlink ref="K14" r:id="rId317"/>
+    <hyperlink ref="K15" r:id="rId318"/>
+    <hyperlink ref="K16" r:id="rId319"/>
+    <hyperlink ref="K17" r:id="rId320"/>
+    <hyperlink ref="K18" r:id="rId321"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1636,6 +1639,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId161"/>
+    <hyperlink ref="K3" r:id="rId162"/>
+    <hyperlink ref="K4" r:id="rId163"/>
+    <hyperlink ref="K5" r:id="rId164"/>
+    <hyperlink ref="K6" r:id="rId165"/>
+    <hyperlink ref="K7" r:id="rId166"/>
+    <hyperlink ref="K8" r:id="rId167"/>
+    <hyperlink ref="K9" r:id="rId168"/>
+    <hyperlink ref="K10" r:id="rId169"/>
+    <hyperlink ref="K11" r:id="rId170"/>
+    <hyperlink ref="K12" r:id="rId171"/>
+    <hyperlink ref="K13" r:id="rId172"/>
+    <hyperlink ref="K14" r:id="rId173"/>
+    <hyperlink ref="K15" r:id="rId174"/>
+    <hyperlink ref="K16" r:id="rId175"/>
+    <hyperlink ref="K17" r:id="rId176"/>
+    <hyperlink ref="K18" r:id="rId177"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1664,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1738,7 +2404,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1773,7 +2439,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1808,7 +2474,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1843,7 +2509,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1878,7 +2544,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1913,7 +2579,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1934,7 +2600,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1948,7 +2614,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1969,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1983,7 +2649,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2018,7 +2684,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2039,7 +2705,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2053,7 +2719,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2088,7 +2754,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2123,7 +2789,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2158,7 +2824,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2193,7 +2859,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2214,7 +2880,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2228,7 +2894,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2249,7 +2915,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2263,7 +2929,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2284,7 +2950,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2298,7 +2964,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2327,7 +2993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2387,7 +3053,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2401,7 +3067,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2436,7 +3102,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2471,7 +3137,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2506,7 +3172,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2541,7 +3207,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2576,7 +3242,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2597,7 +3263,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2611,7 +3277,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2632,7 +3298,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2646,7 +3312,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2681,7 +3347,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2716,7 +3382,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2751,7 +3417,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2786,7 +3452,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2821,7 +3487,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2842,7 +3508,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2856,7 +3522,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2891,7 +3557,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2912,7 +3578,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2924,9 +3590,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2947,7 +3613,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2961,7 +3627,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2990,7 +3656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3064,7 +3730,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3099,7 +3765,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3120,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3134,7 +3800,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3169,7 +3835,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3204,7 +3870,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3239,7 +3905,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3274,7 +3940,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3309,7 +3975,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3344,7 +4010,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3365,7 +4031,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3379,7 +4045,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3414,7 +4080,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3449,7 +4115,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3470,7 +4136,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3484,7 +4150,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3505,7 +4171,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3519,7 +4185,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3540,7 +4206,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3554,7 +4220,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3575,10 +4241,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3589,7 +4255,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3610,7 +4276,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3624,7 +4290,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3653,7 +4319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3727,7 +4393,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3762,7 +4428,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3783,7 +4449,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3797,7 +4463,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3832,7 +4498,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3867,7 +4533,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3902,7 +4568,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3937,7 +4603,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3958,7 +4624,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3972,7 +4638,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4007,7 +4673,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4028,7 +4694,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4042,7 +4708,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4077,7 +4743,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4098,7 +4764,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4112,7 +4778,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4147,7 +4813,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4182,7 +4848,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4203,7 +4869,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4217,7 +4883,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4252,7 +4918,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4273,7 +4939,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4287,7 +4953,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4316,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4376,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4390,7 +5056,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4425,7 +5091,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4446,7 +5112,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4460,7 +5126,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4495,7 +5161,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4530,7 +5196,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4565,7 +5231,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4600,7 +5266,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4621,7 +5287,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4635,7 +5301,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4670,7 +5336,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4705,7 +5371,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4740,7 +5406,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4775,7 +5441,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4796,7 +5462,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4810,7 +5476,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4845,7 +5511,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4866,10 +5532,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4880,7 +5546,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4901,7 +5567,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4915,7 +5581,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4936,7 +5602,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4950,7 +5616,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4979,7 +5645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5053,7 +5719,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5088,7 +5754,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5123,7 +5789,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5158,7 +5824,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5193,7 +5859,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5228,7 +5894,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5263,7 +5929,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5298,7 +5964,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5333,7 +5999,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5368,7 +6034,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5403,7 +6069,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5424,7 +6090,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5438,7 +6104,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5459,7 +6125,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5473,7 +6139,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5508,7 +6174,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5529,7 +6195,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5543,7 +6209,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5564,7 +6230,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5578,7 +6244,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5599,7 +6265,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5613,7 +6279,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5642,7 +6308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5716,7 +6382,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5751,7 +6417,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5786,7 +6452,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5821,7 +6487,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5856,7 +6522,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5891,7 +6557,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5926,7 +6592,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5961,7 +6627,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5996,7 +6662,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6017,7 +6683,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6031,7 +6697,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6066,7 +6732,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6101,7 +6767,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6122,7 +6788,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6136,7 +6802,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6157,7 +6823,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6171,7 +6837,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6206,7 +6872,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6227,7 +6893,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6241,7 +6907,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6262,7 +6928,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6276,7 +6942,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6305,7 +6971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6379,7 +7045,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6414,7 +7080,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6449,7 +7115,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6484,7 +7150,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6519,7 +7185,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6554,7 +7220,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6575,7 +7241,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6589,7 +7255,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6624,7 +7290,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6659,7 +7325,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6680,7 +7346,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6694,7 +7360,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6729,7 +7395,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6750,7 +7416,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6764,7 +7430,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6799,7 +7465,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6820,7 +7486,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6834,7 +7500,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6855,7 +7521,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -6869,7 +7535,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6890,7 +7556,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6904,7 +7570,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6925,7 +7591,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6939,7 +7605,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6968,7 +7634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7028,7 +7694,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7042,7 +7708,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7063,7 +7729,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7077,7 +7743,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7098,7 +7764,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7112,7 +7778,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7147,7 +7813,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7182,7 +7848,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7217,7 +7883,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7238,7 +7904,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7252,7 +7918,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7273,7 +7939,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7287,7 +7953,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7308,7 +7974,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7322,7 +7988,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7343,7 +8009,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7357,7 +8023,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7378,7 +8044,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -7392,7 +8058,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7413,7 +8079,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -7427,7 +8093,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7448,7 +8114,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -7462,7 +8128,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7483,7 +8149,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -7497,7 +8163,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7518,10 +8184,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="G16" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -7532,7 +8198,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7553,10 +8219,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="G17" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -7565,9 +8231,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7588,7 +8254,670 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>535</v>
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId289"/>
+    <hyperlink ref="K3" r:id="rId290"/>
+    <hyperlink ref="K4" r:id="rId291"/>
+    <hyperlink ref="K5" r:id="rId292"/>
+    <hyperlink ref="K6" r:id="rId293"/>
+    <hyperlink ref="K7" r:id="rId294"/>
+    <hyperlink ref="K8" r:id="rId295"/>
+    <hyperlink ref="K9" r:id="rId296"/>
+    <hyperlink ref="K10" r:id="rId297"/>
+    <hyperlink ref="K11" r:id="rId298"/>
+    <hyperlink ref="K12" r:id="rId299"/>
+    <hyperlink ref="K13" r:id="rId300"/>
+    <hyperlink ref="K14" r:id="rId301"/>
+    <hyperlink ref="K15" r:id="rId302"/>
+    <hyperlink ref="K16" r:id="rId303"/>
+    <hyperlink ref="K17" r:id="rId304"/>
+    <hyperlink ref="K18" r:id="rId305"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>916</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>427</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>833</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>582</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>961</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>828</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>284</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>348</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>262</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>487</v>
+      </c>
+      <c r="G16" s="0">
+        <v>23</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>923</v>
+      </c>
+      <c r="G17" s="0">
+        <v>29</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>538</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7602,7 +8931,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7631,7 +8960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7705,7 +9034,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7740,7 +9069,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7775,7 +9104,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7810,7 +9139,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7845,7 +9174,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7880,7 +9209,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7915,7 +9244,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7950,7 +9279,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7985,7 +9314,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8020,7 +9349,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8055,7 +9384,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8090,7 +9419,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8125,7 +9454,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8146,7 +9475,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8160,7 +9489,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8195,7 +9524,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8230,7 +9559,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8251,7 +9580,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G18" s="0">
         <v>15</v>
@@ -8265,7 +9594,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8294,7 +9623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -8368,7 +9697,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8389,7 +9718,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -8403,7 +9732,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8424,7 +9753,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -8438,7 +9767,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8473,7 +9802,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8508,7 +9837,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8543,7 +9872,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8578,7 +9907,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8613,7 +9942,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8648,7 +9977,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8669,7 +9998,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8683,7 +10012,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8718,7 +10047,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8753,7 +10082,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8774,7 +10103,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8788,7 +10117,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8823,7 +10152,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8844,7 +10173,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -8858,7 +10187,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8879,7 +10208,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -8893,7 +10222,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8914,10 +10243,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G18" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -8928,7 +10257,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8957,7 +10286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9031,7 +10360,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9066,7 +10395,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9101,7 +10430,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9136,7 +10465,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9171,7 +10500,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9206,7 +10535,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9241,7 +10570,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9276,7 +10605,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9311,7 +10640,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9346,7 +10675,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9381,7 +10710,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9416,7 +10745,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9451,7 +10780,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9486,7 +10815,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9507,7 +10836,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -9521,7 +10850,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9542,7 +10871,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -9556,7 +10885,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9577,10 +10906,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -9591,7 +10920,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9620,7 +10949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9694,7 +11023,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9729,7 +11058,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9764,7 +11093,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9799,7 +11128,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9834,7 +11163,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9869,7 +11198,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9904,7 +11233,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9925,7 +11254,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9939,7 +11268,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9974,7 +11303,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9995,7 +11324,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10009,7 +11338,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10044,7 +11373,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10065,7 +11394,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -10079,7 +11408,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10100,7 +11429,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -10114,7 +11443,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10135,7 +11464,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -10149,7 +11478,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10170,7 +11499,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10184,7 +11513,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10205,7 +11534,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10219,7 +11548,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10240,7 +11569,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10254,7 +11583,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10283,7 +11612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -10343,7 +11672,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -10357,7 +11686,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10378,7 +11707,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -10392,7 +11721,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10427,7 +11756,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10462,7 +11791,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10497,7 +11826,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10532,7 +11861,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10553,7 +11882,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -10567,7 +11896,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10588,7 +11917,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -10602,7 +11931,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10623,7 +11952,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -10637,7 +11966,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10658,7 +11987,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10672,7 +12001,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10693,7 +12022,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -10707,7 +12036,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10728,7 +12057,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -10742,7 +12071,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10777,7 +12106,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10812,7 +12141,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10833,7 +12162,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10847,7 +12176,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10868,7 +12197,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10882,7 +12211,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10903,7 +12232,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10917,7 +12246,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10946,7 +12275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11006,7 +12335,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -11020,7 +12349,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11055,7 +12384,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11090,7 +12419,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11125,7 +12454,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11160,7 +12489,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11195,7 +12524,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11230,7 +12559,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11265,7 +12594,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11300,7 +12629,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11335,7 +12664,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11370,7 +12699,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11405,7 +12734,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11440,7 +12769,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11461,7 +12790,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -11475,7 +12804,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11496,7 +12825,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -11510,7 +12839,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11531,7 +12860,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -11545,7 +12874,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11566,7 +12895,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -11580,7 +12909,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11609,7 +12938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11683,7 +13012,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11718,7 +13047,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11739,7 +13068,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -11753,7 +13082,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11788,7 +13117,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11823,7 +13152,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11858,7 +13187,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11879,7 +13208,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -11893,7 +13222,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11914,7 +13243,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -11928,7 +13257,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11963,7 +13292,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11984,7 +13313,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -11998,7 +13327,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12033,7 +13362,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12068,7 +13397,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12103,7 +13432,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12138,7 +13467,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12159,7 +13488,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -12173,7 +13502,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12194,7 +13523,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -12208,7 +13537,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12229,7 +13558,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -12243,7 +13572,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12270,667 +13599,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId161"/>
-    <hyperlink ref="K3" r:id="rId162"/>
-    <hyperlink ref="K4" r:id="rId163"/>
-    <hyperlink ref="K5" r:id="rId164"/>
-    <hyperlink ref="K6" r:id="rId165"/>
-    <hyperlink ref="K7" r:id="rId166"/>
-    <hyperlink ref="K8" r:id="rId167"/>
-    <hyperlink ref="K9" r:id="rId168"/>
-    <hyperlink ref="K10" r:id="rId169"/>
-    <hyperlink ref="K11" r:id="rId170"/>
-    <hyperlink ref="K12" r:id="rId171"/>
-    <hyperlink ref="K13" r:id="rId172"/>
-    <hyperlink ref="K14" r:id="rId173"/>
-    <hyperlink ref="K15" r:id="rId174"/>
-    <hyperlink ref="K16" r:id="rId175"/>
-    <hyperlink ref="K17" r:id="rId176"/>
-    <hyperlink ref="K18" r:id="rId177"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -25,6 +25,7 @@
     <sheet name="20211126040336 - Nov 26 2021" sheetId="18" r:id="rId19"/>
     <sheet name="20211127040358 - Nov 27 2021" sheetId="19" r:id="rId20"/>
     <sheet name="20211128040418 - Nov 28 2021" sheetId="20" r:id="rId21"/>
+    <sheet name="20211129040331 - Nov 29 2021" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -47,6 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20211126040336 - Nov 26 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20211127040358 - Nov 27 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20211128040418 - Nov 28 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'20211129040331 - Nov 29 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -311,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -982,23 +985,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId305"/>
-    <hyperlink ref="K3" r:id="rId306"/>
-    <hyperlink ref="K4" r:id="rId307"/>
-    <hyperlink ref="K5" r:id="rId308"/>
-    <hyperlink ref="K6" r:id="rId309"/>
-    <hyperlink ref="K7" r:id="rId310"/>
-    <hyperlink ref="K8" r:id="rId311"/>
-    <hyperlink ref="K9" r:id="rId312"/>
-    <hyperlink ref="K10" r:id="rId313"/>
-    <hyperlink ref="K11" r:id="rId314"/>
-    <hyperlink ref="K12" r:id="rId315"/>
-    <hyperlink ref="K13" r:id="rId316"/>
-    <hyperlink ref="K14" r:id="rId317"/>
-    <hyperlink ref="K15" r:id="rId318"/>
-    <hyperlink ref="K16" r:id="rId319"/>
-    <hyperlink ref="K17" r:id="rId320"/>
-    <hyperlink ref="K18" r:id="rId321"/>
+    <hyperlink ref="K2" r:id="rId321"/>
+    <hyperlink ref="K3" r:id="rId322"/>
+    <hyperlink ref="K4" r:id="rId323"/>
+    <hyperlink ref="K5" r:id="rId324"/>
+    <hyperlink ref="K6" r:id="rId325"/>
+    <hyperlink ref="K7" r:id="rId326"/>
+    <hyperlink ref="K8" r:id="rId327"/>
+    <hyperlink ref="K9" r:id="rId328"/>
+    <hyperlink ref="K10" r:id="rId329"/>
+    <hyperlink ref="K11" r:id="rId330"/>
+    <hyperlink ref="K12" r:id="rId331"/>
+    <hyperlink ref="K13" r:id="rId332"/>
+    <hyperlink ref="K14" r:id="rId333"/>
+    <hyperlink ref="K15" r:id="rId334"/>
+    <hyperlink ref="K16" r:id="rId335"/>
+    <hyperlink ref="K17" r:id="rId336"/>
+    <hyperlink ref="K18" r:id="rId337"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1639,6 +1642,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId177"/>
+    <hyperlink ref="K3" r:id="rId178"/>
+    <hyperlink ref="K4" r:id="rId179"/>
+    <hyperlink ref="K5" r:id="rId180"/>
+    <hyperlink ref="K6" r:id="rId181"/>
+    <hyperlink ref="K7" r:id="rId182"/>
+    <hyperlink ref="K8" r:id="rId183"/>
+    <hyperlink ref="K9" r:id="rId184"/>
+    <hyperlink ref="K10" r:id="rId185"/>
+    <hyperlink ref="K11" r:id="rId186"/>
+    <hyperlink ref="K12" r:id="rId187"/>
+    <hyperlink ref="K13" r:id="rId188"/>
+    <hyperlink ref="K14" r:id="rId189"/>
+    <hyperlink ref="K15" r:id="rId190"/>
+    <hyperlink ref="K16" r:id="rId191"/>
+    <hyperlink ref="K17" r:id="rId192"/>
+    <hyperlink ref="K18" r:id="rId193"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1667,7 +2333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1741,7 +2407,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1776,7 +2442,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1811,7 +2477,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1846,7 +2512,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1881,7 +2547,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1916,7 +2582,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1937,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1951,7 +2617,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1972,7 +2638,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1986,7 +2652,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2021,7 +2687,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2042,7 +2708,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2056,7 +2722,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2091,7 +2757,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2126,7 +2792,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2161,7 +2827,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2196,7 +2862,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2217,7 +2883,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2231,7 +2897,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2252,7 +2918,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2266,7 +2932,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2287,7 +2953,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2301,7 +2967,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2330,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2390,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2404,7 +3070,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2439,7 +3105,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2474,7 +3140,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2509,7 +3175,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2544,7 +3210,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2579,7 +3245,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2600,7 +3266,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2614,7 +3280,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2635,7 +3301,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2649,7 +3315,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2684,7 +3350,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2719,7 +3385,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2754,7 +3420,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2789,7 +3455,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2824,7 +3490,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2845,7 +3511,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2859,7 +3525,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2894,7 +3560,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2915,7 +3581,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2927,9 +3593,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2950,7 +3616,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2964,7 +3630,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2993,7 +3659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3067,7 +3733,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3102,7 +3768,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3123,7 +3789,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3137,7 +3803,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3172,7 +3838,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3207,7 +3873,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3242,7 +3908,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3277,7 +3943,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3312,7 +3978,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3347,7 +4013,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3368,7 +4034,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3382,7 +4048,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3417,7 +4083,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3452,7 +4118,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3473,7 +4139,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3487,7 +4153,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3508,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3522,7 +4188,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3543,7 +4209,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3557,7 +4223,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3578,10 +4244,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3592,7 +4258,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3613,7 +4279,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3627,7 +4293,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3656,7 +4322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3730,7 +4396,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3765,7 +4431,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3786,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3800,7 +4466,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3835,7 +4501,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3870,7 +4536,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3905,7 +4571,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3940,7 +4606,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3961,7 +4627,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3975,7 +4641,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4010,7 +4676,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4031,7 +4697,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4045,7 +4711,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4080,7 +4746,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4101,7 +4767,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4115,7 +4781,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4150,7 +4816,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4185,7 +4851,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4206,7 +4872,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4220,7 +4886,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4255,7 +4921,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4276,7 +4942,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4290,7 +4956,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4319,7 +4985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4379,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4393,7 +5059,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4428,7 +5094,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4449,7 +5115,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4463,7 +5129,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4498,7 +5164,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4533,7 +5199,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4568,7 +5234,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4603,7 +5269,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4624,7 +5290,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4638,7 +5304,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4673,7 +5339,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4708,7 +5374,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4743,7 +5409,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4778,7 +5444,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4799,7 +5465,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4813,7 +5479,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4848,7 +5514,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4869,10 +5535,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4883,7 +5549,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4904,7 +5570,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4918,7 +5584,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4939,7 +5605,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4953,7 +5619,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4982,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5056,7 +5722,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5091,7 +5757,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5126,7 +5792,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5161,7 +5827,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5196,7 +5862,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5231,7 +5897,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5266,7 +5932,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5301,7 +5967,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5336,7 +6002,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5371,7 +6037,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5406,7 +6072,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5427,7 +6093,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5441,7 +6107,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5462,7 +6128,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5476,7 +6142,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5511,7 +6177,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5532,7 +6198,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5546,7 +6212,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5567,7 +6233,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5581,7 +6247,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5602,7 +6268,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5616,7 +6282,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5645,7 +6311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5719,7 +6385,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5754,7 +6420,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5789,7 +6455,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5824,7 +6490,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5859,7 +6525,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5894,7 +6560,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5929,7 +6595,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5964,7 +6630,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5999,7 +6665,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6020,7 +6686,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6034,7 +6700,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6069,7 +6735,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6104,7 +6770,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6125,7 +6791,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6139,7 +6805,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6160,7 +6826,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6174,7 +6840,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6209,7 +6875,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6230,7 +6896,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6244,7 +6910,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6265,7 +6931,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6279,7 +6945,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6308,7 +6974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6382,7 +7048,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6417,7 +7083,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6452,7 +7118,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6487,7 +7153,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6522,7 +7188,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6557,7 +7223,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6578,7 +7244,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6592,7 +7258,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6627,7 +7293,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6662,7 +7328,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6683,7 +7349,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6697,7 +7363,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6732,7 +7398,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6753,7 +7419,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6767,7 +7433,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6802,7 +7468,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6823,7 +7489,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6837,7 +7503,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6858,7 +7524,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -6872,7 +7538,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6893,7 +7559,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6907,7 +7573,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6928,7 +7594,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6942,7 +7608,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6971,7 +7637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7031,7 +7697,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7045,7 +7711,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7066,7 +7732,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7080,7 +7746,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7101,7 +7767,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7115,7 +7781,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7150,7 +7816,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7185,7 +7851,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7220,7 +7886,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7241,7 +7907,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7255,7 +7921,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7276,7 +7942,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7290,7 +7956,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7311,7 +7977,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7325,7 +7991,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7346,7 +8012,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7360,7 +8026,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7381,7 +8047,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -7395,7 +8061,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7416,7 +8082,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -7430,7 +8096,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7451,7 +8117,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -7465,7 +8131,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7486,7 +8152,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -7500,7 +8166,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7521,10 +8187,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="G16" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -7535,7 +8201,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7556,10 +8222,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="G17" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -7568,9 +8234,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7591,7 +8257,670 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>535</v>
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId305"/>
+    <hyperlink ref="K3" r:id="rId306"/>
+    <hyperlink ref="K4" r:id="rId307"/>
+    <hyperlink ref="K5" r:id="rId308"/>
+    <hyperlink ref="K6" r:id="rId309"/>
+    <hyperlink ref="K7" r:id="rId310"/>
+    <hyperlink ref="K8" r:id="rId311"/>
+    <hyperlink ref="K9" r:id="rId312"/>
+    <hyperlink ref="K10" r:id="rId313"/>
+    <hyperlink ref="K11" r:id="rId314"/>
+    <hyperlink ref="K12" r:id="rId315"/>
+    <hyperlink ref="K13" r:id="rId316"/>
+    <hyperlink ref="K14" r:id="rId317"/>
+    <hyperlink ref="K15" r:id="rId318"/>
+    <hyperlink ref="K16" r:id="rId319"/>
+    <hyperlink ref="K17" r:id="rId320"/>
+    <hyperlink ref="K18" r:id="rId321"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>916</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>427</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>833</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>582</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>961</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>828</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>284</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>348</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>262</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>487</v>
+      </c>
+      <c r="G16" s="0">
+        <v>23</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>923</v>
+      </c>
+      <c r="G17" s="0">
+        <v>29</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>538</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7605,7 +8934,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7634,7 +8963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7694,7 +9023,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7708,7 +9037,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7729,7 +9058,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7743,7 +9072,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7764,7 +9093,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7778,7 +9107,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7813,7 +9142,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7848,7 +9177,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7883,7 +9212,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7904,7 +9233,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7918,7 +9247,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7939,7 +9268,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7953,7 +9282,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7974,7 +9303,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7988,7 +9317,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8009,7 +9338,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8023,7 +9352,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8044,7 +9373,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -8058,7 +9387,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8079,7 +9408,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8093,7 +9422,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8114,7 +9443,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8128,7 +9457,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8149,7 +9478,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8163,7 +9492,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8184,10 +9513,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="G16" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -8198,7 +9527,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8219,10 +9548,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>929</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -8231,9 +9560,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8254,670 +9583,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
-      </c>
-      <c r="G18" s="0">
-        <v>15</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId289"/>
-    <hyperlink ref="K3" r:id="rId290"/>
-    <hyperlink ref="K4" r:id="rId291"/>
-    <hyperlink ref="K5" r:id="rId292"/>
-    <hyperlink ref="K6" r:id="rId293"/>
-    <hyperlink ref="K7" r:id="rId294"/>
-    <hyperlink ref="K8" r:id="rId295"/>
-    <hyperlink ref="K9" r:id="rId296"/>
-    <hyperlink ref="K10" r:id="rId297"/>
-    <hyperlink ref="K11" r:id="rId298"/>
-    <hyperlink ref="K12" r:id="rId299"/>
-    <hyperlink ref="K13" r:id="rId300"/>
-    <hyperlink ref="K14" r:id="rId301"/>
-    <hyperlink ref="K15" r:id="rId302"/>
-    <hyperlink ref="K16" r:id="rId303"/>
-    <hyperlink ref="K17" r:id="rId304"/>
-    <hyperlink ref="K18" r:id="rId305"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>916</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>427</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>833</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>582</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>961</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>828</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>280</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>284</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>348</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>262</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>487</v>
-      </c>
-      <c r="G16" s="0">
-        <v>23</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>923</v>
-      </c>
-      <c r="G17" s="0">
-        <v>29</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8931,7 +9597,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9601,6 +10267,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId289"/>
+    <hyperlink ref="K3" r:id="rId290"/>
+    <hyperlink ref="K4" r:id="rId291"/>
+    <hyperlink ref="K5" r:id="rId292"/>
+    <hyperlink ref="K6" r:id="rId293"/>
+    <hyperlink ref="K7" r:id="rId294"/>
+    <hyperlink ref="K8" r:id="rId295"/>
+    <hyperlink ref="K9" r:id="rId296"/>
+    <hyperlink ref="K10" r:id="rId297"/>
+    <hyperlink ref="K11" r:id="rId298"/>
+    <hyperlink ref="K12" r:id="rId299"/>
+    <hyperlink ref="K13" r:id="rId300"/>
+    <hyperlink ref="K14" r:id="rId301"/>
+    <hyperlink ref="K15" r:id="rId302"/>
+    <hyperlink ref="K16" r:id="rId303"/>
+    <hyperlink ref="K17" r:id="rId304"/>
+    <hyperlink ref="K18" r:id="rId305"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>422</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>824</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>807</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>341</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>454</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>868</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>472</v>
+      </c>
+      <c r="G18" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId273"/>
     <hyperlink ref="K3" r:id="rId274"/>
     <hyperlink ref="K4" r:id="rId275"/>
@@ -9623,7 +10952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9697,7 +11026,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9732,7 +11061,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9767,7 +11096,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9802,7 +11131,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9837,7 +11166,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9872,7 +11201,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9907,7 +11236,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9942,7 +11271,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9977,7 +11306,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10012,7 +11341,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10047,7 +11376,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10082,7 +11411,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10117,7 +11446,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10152,7 +11481,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10173,7 +11502,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10187,7 +11516,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10208,7 +11537,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10222,7 +11551,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10243,10 +11572,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -10257,7 +11586,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10286,7 +11615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -10360,7 +11689,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10395,7 +11724,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10430,7 +11759,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10465,7 +11794,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10500,7 +11829,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10535,7 +11864,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10570,7 +11899,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10591,7 +11920,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -10605,7 +11934,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10640,7 +11969,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10661,7 +11990,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -10675,7 +12004,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10710,7 +12039,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10731,7 +12060,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -10745,7 +12074,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10766,7 +12095,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -10780,7 +12109,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10801,7 +12130,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -10815,7 +12144,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10836,7 +12165,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10850,7 +12179,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10871,7 +12200,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10885,7 +12214,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10906,7 +12235,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -10920,7 +12249,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10949,7 +12278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11009,7 +12338,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -11023,7 +12352,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11044,7 +12373,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -11058,7 +12387,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11093,7 +12422,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11128,7 +12457,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11163,7 +12492,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11198,7 +12527,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11219,7 +12548,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -11233,7 +12562,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11254,7 +12583,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -11268,7 +12597,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11289,7 +12618,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -11303,7 +12632,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11324,7 +12653,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -11338,7 +12667,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11359,7 +12688,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -11373,7 +12702,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11394,7 +12723,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -11408,7 +12737,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11443,7 +12772,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11478,7 +12807,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11499,7 +12828,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -11513,7 +12842,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11534,7 +12863,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -11548,7 +12877,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11569,7 +12898,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -11583,7 +12912,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11612,7 +12941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11672,7 +13001,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -11686,7 +13015,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11721,7 +13050,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11756,7 +13085,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11791,7 +13120,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11826,7 +13155,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11861,7 +13190,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11896,7 +13225,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11931,7 +13260,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11966,7 +13295,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12001,7 +13330,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12036,7 +13365,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12071,7 +13400,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12106,7 +13435,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12127,7 +13456,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -12141,7 +13470,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12162,7 +13491,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -12176,7 +13505,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12197,7 +13526,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -12211,7 +13540,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12232,7 +13561,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -12246,7 +13575,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12275,7 +13604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -12349,7 +13678,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12384,7 +13713,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12405,7 +13734,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -12419,7 +13748,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12454,7 +13783,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12489,7 +13818,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12524,7 +13853,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12545,7 +13874,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -12559,7 +13888,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12580,7 +13909,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -12594,7 +13923,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12629,7 +13958,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12650,7 +13979,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -12664,7 +13993,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12699,7 +14028,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12734,7 +14063,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12769,7 +14098,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12804,7 +14133,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12825,7 +14154,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -12839,7 +14168,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12860,7 +14189,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -12874,7 +14203,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12895,7 +14224,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -12909,7 +14238,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12936,667 +14265,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId177"/>
-    <hyperlink ref="K3" r:id="rId178"/>
-    <hyperlink ref="K4" r:id="rId179"/>
-    <hyperlink ref="K5" r:id="rId180"/>
-    <hyperlink ref="K6" r:id="rId181"/>
-    <hyperlink ref="K7" r:id="rId182"/>
-    <hyperlink ref="K8" r:id="rId183"/>
-    <hyperlink ref="K9" r:id="rId184"/>
-    <hyperlink ref="K10" r:id="rId185"/>
-    <hyperlink ref="K11" r:id="rId186"/>
-    <hyperlink ref="K12" r:id="rId187"/>
-    <hyperlink ref="K13" r:id="rId188"/>
-    <hyperlink ref="K14" r:id="rId189"/>
-    <hyperlink ref="K15" r:id="rId190"/>
-    <hyperlink ref="K16" r:id="rId191"/>
-    <hyperlink ref="K17" r:id="rId192"/>
-    <hyperlink ref="K18" r:id="rId193"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
+++ b/NYC PS Meetup-PL5uoqS92stXiRX67A85FyrXvtn71eTiWO.xlsx
@@ -26,6 +26,7 @@
     <sheet name="20211127040358 - Nov 27 2021" sheetId="19" r:id="rId20"/>
     <sheet name="20211128040418 - Nov 28 2021" sheetId="20" r:id="rId21"/>
     <sheet name="20211129040331 - Nov 29 2021" sheetId="21" r:id="rId22"/>
+    <sheet name="20211130040535 - Nov 30 2021" sheetId="22" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211110220651 - Nov 10 2021'!$A$1:$K$18</definedName>
@@ -49,6 +50,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20211127040358 - Nov 27 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20211128040418 - Nov 28 2021'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'20211129040331 - Nov 29 2021'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'20211130040535 - Nov 30 2021'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -313,8 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -985,23 +988,23 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId321"/>
-    <hyperlink ref="K3" r:id="rId322"/>
-    <hyperlink ref="K4" r:id="rId323"/>
-    <hyperlink ref="K5" r:id="rId324"/>
-    <hyperlink ref="K6" r:id="rId325"/>
-    <hyperlink ref="K7" r:id="rId326"/>
-    <hyperlink ref="K8" r:id="rId327"/>
-    <hyperlink ref="K9" r:id="rId328"/>
-    <hyperlink ref="K10" r:id="rId329"/>
-    <hyperlink ref="K11" r:id="rId330"/>
-    <hyperlink ref="K12" r:id="rId331"/>
-    <hyperlink ref="K13" r:id="rId332"/>
-    <hyperlink ref="K14" r:id="rId333"/>
-    <hyperlink ref="K15" r:id="rId334"/>
-    <hyperlink ref="K16" r:id="rId335"/>
-    <hyperlink ref="K17" r:id="rId336"/>
-    <hyperlink ref="K18" r:id="rId337"/>
+    <hyperlink ref="K2" r:id="rId337"/>
+    <hyperlink ref="K3" r:id="rId338"/>
+    <hyperlink ref="K4" r:id="rId339"/>
+    <hyperlink ref="K5" r:id="rId340"/>
+    <hyperlink ref="K6" r:id="rId341"/>
+    <hyperlink ref="K7" r:id="rId342"/>
+    <hyperlink ref="K8" r:id="rId343"/>
+    <hyperlink ref="K9" r:id="rId344"/>
+    <hyperlink ref="K10" r:id="rId345"/>
+    <hyperlink ref="K11" r:id="rId346"/>
+    <hyperlink ref="K12" r:id="rId347"/>
+    <hyperlink ref="K13" r:id="rId348"/>
+    <hyperlink ref="K14" r:id="rId349"/>
+    <hyperlink ref="K15" r:id="rId350"/>
+    <hyperlink ref="K16" r:id="rId351"/>
+    <hyperlink ref="K17" r:id="rId352"/>
+    <hyperlink ref="K18" r:id="rId353"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1642,6 +1645,669 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId193"/>
+    <hyperlink ref="K3" r:id="rId194"/>
+    <hyperlink ref="K4" r:id="rId195"/>
+    <hyperlink ref="K5" r:id="rId196"/>
+    <hyperlink ref="K6" r:id="rId197"/>
+    <hyperlink ref="K7" r:id="rId198"/>
+    <hyperlink ref="K8" r:id="rId199"/>
+    <hyperlink ref="K9" r:id="rId200"/>
+    <hyperlink ref="K10" r:id="rId201"/>
+    <hyperlink ref="K11" r:id="rId202"/>
+    <hyperlink ref="K12" r:id="rId203"/>
+    <hyperlink ref="K13" r:id="rId204"/>
+    <hyperlink ref="K14" r:id="rId205"/>
+    <hyperlink ref="K15" r:id="rId206"/>
+    <hyperlink ref="K16" r:id="rId207"/>
+    <hyperlink ref="K17" r:id="rId208"/>
+    <hyperlink ref="K18" r:id="rId209"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>914</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>425</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>827</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>579</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>951</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>814</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>259</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>470</v>
+      </c>
+      <c r="G16" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>893</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>506</v>
+      </c>
+      <c r="G18" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1670,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1744,7 +2410,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1779,7 +2445,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1814,7 +2480,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1849,7 +2515,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1884,7 +2550,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1919,7 +2585,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1940,7 +2606,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -1954,7 +2620,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1975,7 +2641,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -1989,7 +2655,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2024,7 +2690,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2045,7 +2711,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -2059,7 +2725,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2094,7 +2760,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2129,7 +2795,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2164,7 +2830,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2199,7 +2865,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2220,7 +2886,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -2234,7 +2900,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2255,7 +2921,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2269,7 +2935,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2290,7 +2956,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2304,7 +2970,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2333,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2393,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -2407,7 +3073,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2442,7 +3108,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2477,7 +3143,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2512,7 +3178,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2547,7 +3213,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2582,7 +3248,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2603,7 +3269,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -2617,7 +3283,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2638,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -2652,7 +3318,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2687,7 +3353,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2722,7 +3388,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2757,7 +3423,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2792,7 +3458,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2827,7 +3493,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2848,7 +3514,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -2862,7 +3528,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2897,7 +3563,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2918,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -2930,9 +3596,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2953,7 +3619,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -2967,7 +3633,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2996,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3070,7 +3736,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3105,7 +3771,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3126,7 +3792,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3140,7 +3806,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3175,7 +3841,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3210,7 +3876,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3245,7 +3911,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3280,7 +3946,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3315,7 +3981,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3350,7 +4016,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3371,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -3385,7 +4051,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3420,7 +4086,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3455,7 +4121,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3476,7 +4142,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -3490,7 +4156,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3511,7 +4177,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -3525,7 +4191,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3546,7 +4212,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -3560,7 +4226,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3581,10 +4247,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3595,7 +4261,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3616,7 +4282,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -3630,7 +4296,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3659,7 +4325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -3733,7 +4399,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3768,7 +4434,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3789,7 +4455,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -3803,7 +4469,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3838,7 +4504,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3873,7 +4539,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3908,7 +4574,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3943,7 +4609,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3964,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -3978,7 +4644,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4013,7 +4679,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4034,7 +4700,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -4048,7 +4714,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4083,7 +4749,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4104,7 +4770,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -4118,7 +4784,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4153,7 +4819,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4188,7 +4854,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4209,7 +4875,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G16" s="0">
         <v>22</v>
@@ -4223,7 +4889,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4258,7 +4924,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4279,7 +4945,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4293,7 +4959,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4322,7 +4988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4382,7 +5048,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -4396,7 +5062,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4431,7 +5097,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4452,7 +5118,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -4466,7 +5132,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4501,7 +5167,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4536,7 +5202,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4571,7 +5237,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4606,7 +5272,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4627,7 +5293,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -4641,7 +5307,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4676,7 +5342,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4711,7 +5377,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4746,7 +5412,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4781,7 +5447,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4802,7 +5468,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -4816,7 +5482,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4851,7 +5517,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4872,10 +5538,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -4886,7 +5552,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4907,7 +5573,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -4921,7 +5587,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4942,7 +5608,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -4956,7 +5622,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4985,7 +5651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5059,7 +5725,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5094,7 +5760,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5129,7 +5795,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5164,7 +5830,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5199,7 +5865,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5234,7 +5900,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5269,7 +5935,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5304,7 +5970,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5339,7 +6005,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5374,7 +6040,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5409,7 +6075,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5430,7 +6096,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -5444,7 +6110,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5465,7 +6131,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -5479,7 +6145,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5514,7 +6180,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5535,7 +6201,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -5549,7 +6215,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5570,7 +6236,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -5584,7 +6250,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5605,7 +6271,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -5619,7 +6285,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5648,7 +6314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -5722,7 +6388,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5757,7 +6423,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5792,7 +6458,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5827,7 +6493,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5862,7 +6528,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5897,7 +6563,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5932,7 +6598,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5967,7 +6633,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6002,7 +6668,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6023,7 +6689,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6037,7 +6703,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6072,7 +6738,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6107,7 +6773,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6128,7 +6794,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -6142,7 +6808,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6163,7 +6829,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6177,7 +6843,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6212,7 +6878,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6233,7 +6899,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6247,7 +6913,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6268,7 +6934,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6282,7 +6948,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6311,7 +6977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -6385,7 +7051,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6420,7 +7086,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6455,7 +7121,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6490,7 +7156,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6525,7 +7191,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6560,7 +7226,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6581,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -6595,7 +7261,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6630,7 +7296,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6665,7 +7331,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6686,7 +7352,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -6700,7 +7366,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6735,7 +7401,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6756,7 +7422,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -6770,7 +7436,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6805,7 +7471,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6826,7 +7492,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -6840,7 +7506,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6861,7 +7527,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G16" s="0">
         <v>23</v>
@@ -6875,7 +7541,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6896,7 +7562,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -6910,7 +7576,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6931,7 +7597,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -6945,7 +7611,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6974,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7034,7 +7700,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7048,7 +7714,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7069,7 +7735,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7083,7 +7749,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7104,7 +7770,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7118,7 +7784,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7153,7 +7819,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7188,7 +7854,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7223,7 +7889,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7244,7 +7910,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7258,7 +7924,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7279,7 +7945,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7293,7 +7959,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7314,7 +7980,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7328,7 +7994,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7349,7 +8015,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -7363,7 +8029,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7384,7 +8050,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -7398,7 +8064,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7419,7 +8085,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -7433,7 +8099,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7454,7 +8120,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -7468,7 +8134,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7489,7 +8155,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -7503,7 +8169,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7524,10 +8190,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="G16" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -7538,7 +8204,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7559,10 +8225,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="G17" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -7571,9 +8237,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7594,7 +8260,670 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>535</v>
+        <v>459</v>
+      </c>
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId321"/>
+    <hyperlink ref="K3" r:id="rId322"/>
+    <hyperlink ref="K4" r:id="rId323"/>
+    <hyperlink ref="K5" r:id="rId324"/>
+    <hyperlink ref="K6" r:id="rId325"/>
+    <hyperlink ref="K7" r:id="rId326"/>
+    <hyperlink ref="K8" r:id="rId327"/>
+    <hyperlink ref="K9" r:id="rId328"/>
+    <hyperlink ref="K10" r:id="rId329"/>
+    <hyperlink ref="K11" r:id="rId330"/>
+    <hyperlink ref="K12" r:id="rId331"/>
+    <hyperlink ref="K13" r:id="rId332"/>
+    <hyperlink ref="K14" r:id="rId333"/>
+    <hyperlink ref="K15" r:id="rId334"/>
+    <hyperlink ref="K16" r:id="rId335"/>
+    <hyperlink ref="K17" r:id="rId336"/>
+    <hyperlink ref="K18" r:id="rId337"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>916</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>427</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>833</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>582</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>961</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>357</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>828</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>280</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>284</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>348</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>262</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>487</v>
+      </c>
+      <c r="G16" s="0">
+        <v>23</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>923</v>
+      </c>
+      <c r="G17" s="0">
+        <v>29</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>538</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -7608,7 +8937,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7637,7 +8966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -7697,7 +9026,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -7711,7 +9040,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7732,7 +9061,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -7746,7 +9075,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7767,7 +9096,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -7781,7 +9110,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7816,7 +9145,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7851,7 +9180,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7886,7 +9215,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7907,7 +9236,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -7921,7 +9250,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7942,7 +9271,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -7956,7 +9285,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7977,7 +9306,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -7991,7 +9320,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8012,7 +9341,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -8026,7 +9355,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8047,7 +9376,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -8061,7 +9390,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8082,7 +9411,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -8096,7 +9425,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8117,7 +9446,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -8131,7 +9460,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8152,7 +9481,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -8166,7 +9495,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8187,10 +9516,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="G16" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -8201,7 +9530,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8222,10 +9551,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>867</v>
+        <v>929</v>
       </c>
       <c r="G17" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -8234,9 +9563,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8257,670 +9586,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>459</v>
-      </c>
-      <c r="G18" s="0">
-        <v>15</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId305"/>
-    <hyperlink ref="K3" r:id="rId306"/>
-    <hyperlink ref="K4" r:id="rId307"/>
-    <hyperlink ref="K5" r:id="rId308"/>
-    <hyperlink ref="K6" r:id="rId309"/>
-    <hyperlink ref="K7" r:id="rId310"/>
-    <hyperlink ref="K8" r:id="rId311"/>
-    <hyperlink ref="K9" r:id="rId312"/>
-    <hyperlink ref="K10" r:id="rId313"/>
-    <hyperlink ref="K11" r:id="rId314"/>
-    <hyperlink ref="K12" r:id="rId315"/>
-    <hyperlink ref="K13" r:id="rId316"/>
-    <hyperlink ref="K14" r:id="rId317"/>
-    <hyperlink ref="K15" r:id="rId318"/>
-    <hyperlink ref="K16" r:id="rId319"/>
-    <hyperlink ref="K17" r:id="rId320"/>
-    <hyperlink ref="K18" r:id="rId321"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>916</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>427</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>833</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>582</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>961</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>828</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>280</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>284</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>348</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>262</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>487</v>
-      </c>
-      <c r="G16" s="0">
-        <v>23</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>923</v>
-      </c>
-      <c r="G17" s="0">
-        <v>29</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -8934,7 +9600,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8963,7 +9629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -9023,7 +9689,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -9037,7 +9703,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9072,7 +9738,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9107,7 +9773,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9142,7 +9808,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9177,7 +9843,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9212,7 +9878,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9247,7 +9913,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9268,7 +9934,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -9282,7 +9948,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9303,7 +9969,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -9317,7 +9983,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9338,7 +10004,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -9352,7 +10018,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9387,7 +10053,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9422,7 +10088,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9443,7 +10109,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -9457,7 +10123,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9478,7 +10144,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -9492,7 +10158,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9527,7 +10193,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9548,7 +10214,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G17" s="0">
         <v>29</v>
@@ -9562,7 +10228,7 @@
       <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9583,7 +10249,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -9597,7 +10263,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10267,6 +10933,669 @@
   </sheetData>
   <autoFilter ref="A1:K18"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId305"/>
+    <hyperlink ref="K3" r:id="rId306"/>
+    <hyperlink ref="K4" r:id="rId307"/>
+    <hyperlink ref="K5" r:id="rId308"/>
+    <hyperlink ref="K6" r:id="rId309"/>
+    <hyperlink ref="K7" r:id="rId310"/>
+    <hyperlink ref="K8" r:id="rId311"/>
+    <hyperlink ref="K9" r:id="rId312"/>
+    <hyperlink ref="K10" r:id="rId313"/>
+    <hyperlink ref="K11" r:id="rId314"/>
+    <hyperlink ref="K12" r:id="rId315"/>
+    <hyperlink ref="K13" r:id="rId316"/>
+    <hyperlink ref="K14" r:id="rId317"/>
+    <hyperlink ref="K15" r:id="rId318"/>
+    <hyperlink ref="K16" r:id="rId319"/>
+    <hyperlink ref="K17" r:id="rId320"/>
+    <hyperlink ref="K18" r:id="rId321"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>910</v>
+      </c>
+      <c r="G2" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>422</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0">
+        <v>824</v>
+      </c>
+      <c r="G4" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0">
+        <v>383</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0">
+        <v>576</v>
+      </c>
+      <c r="G8" s="0">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0">
+        <v>944</v>
+      </c>
+      <c r="G9" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0">
+        <v>356</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0">
+        <v>807</v>
+      </c>
+      <c r="G11" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="0">
+        <v>275</v>
+      </c>
+      <c r="G12" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="0">
+        <v>275</v>
+      </c>
+      <c r="G13" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="0">
+        <v>341</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="0">
+        <v>252</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="0">
+        <v>454</v>
+      </c>
+      <c r="G16" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0">
+        <v>868</v>
+      </c>
+      <c r="G17" s="0">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="0">
+        <v>472</v>
+      </c>
+      <c r="G18" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K18"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId289"/>
     <hyperlink ref="K3" r:id="rId290"/>
     <hyperlink ref="K4" r:id="rId291"/>
@@ -10289,7 +11618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -10363,7 +11692,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10398,7 +11727,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10433,7 +11762,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10468,7 +11797,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10503,7 +11832,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10538,7 +11867,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10573,7 +11902,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10608,7 +11937,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10643,7 +11972,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10678,7 +12007,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10713,7 +12042,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10748,7 +12077,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10783,7 +12112,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10818,7 +12147,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10839,7 +12168,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -10853,7 +12182,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10874,7 +12203,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -10888,7 +12217,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10909,10 +12238,10 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G18" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -10923,7 +12252,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10952,7 +12281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11026,7 +12355,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11061,7 +12390,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11096,7 +12425,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11131,7 +12460,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11166,7 +12495,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11201,7 +12530,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11236,7 +12565,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11257,7 +12586,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -11271,7 +12600,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11306,7 +12635,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11327,7 +12656,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -11341,7 +12670,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11376,7 +12705,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11397,7 +12726,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -11411,7 +12740,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11432,7 +12761,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0">
         <v>8</v>
@@ -11446,7 +12775,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11467,7 +12796,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -11481,7 +12810,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11502,7 +12831,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -11516,7 +12845,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11537,7 +12866,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -11551,7 +12880,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11572,7 +12901,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -11586,7 +12915,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11615,7 +12944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -11675,7 +13004,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -11689,7 +13018,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11710,7 +13039,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="0">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G3" s="0">
         <v>10</v>
@@ -11724,7 +13053,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11759,7 +13088,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11794,7 +13123,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11829,7 +13158,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11864,7 +13193,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11885,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -11899,7 +13228,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11920,7 +13249,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -11934,7 +13263,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11955,7 +13284,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -11969,7 +13298,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11990,7 +13319,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -12004,7 +13333,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12025,7 +13354,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0">
         <v>13</v>
@@ -12039,7 +13368,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12060,7 +13389,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="0">
         <v>9</v>
@@ -12074,7 +13403,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12109,7 +13438,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12144,7 +13473,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12165,7 +13494,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -12179,7 +13508,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12200,7 +13529,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -12214,7 +13543,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12235,7 +13564,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -12249,7 +13578,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12278,7 +13607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -12338,7 +13667,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
@@ -12352,7 +13681,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12387,7 +13716,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12422,7 +13751,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12457,7 +13786,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12492,7 +13821,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12527,7 +13856,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12562,7 +13891,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12597,7 +13926,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12632,7 +13961,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12667,7 +13996,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12702,7 +14031,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12737,7 +14066,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12772,7 +14101,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12793,7 +14122,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" s="0">
         <v>4</v>
@@ -12807,7 +14136,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12828,7 +14157,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -12842,7 +14171,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12863,7 +14192,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -12877,7 +14206,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12898,7 +14227,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -12912,7 +14241,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12941,7 +14270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -13015,7 +14344,7 @@
       <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13050,7 +14379,7 @@
       <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13071,7 +14400,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G4" s="0">
         <v>23</v>
@@ -13085,7 +14414,7 @@
       <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13120,7 +14449,7 @@
       <c r="J5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13155,7 +14484,7 @@
       <c r="J6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13190,7 +14519,7 @@
       <c r="J7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13211,7 +14540,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" s="0">
         <v>12</v>
@@ -13225,7 +14554,7 @@
       <c r="J8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13246,7 +14575,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G9" s="0">
         <v>22</v>
@@ -13260,7 +14589,7 @@
       <c r="J9" s="0">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13295,7 +14624,7 @@
       <c r="J10" s="0">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -13316,7 +14645,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="0">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G11" s="0">
         <v>26</v>
@@ -13330,7 +14659,7 @@
       <c r="J11" s="0">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13365,7 +14694,7 @@
       <c r="J12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13400,7 +14729,7 @@
       <c r="J13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13435,7 +14764,7 @@
       <c r="J14" s="0">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -13470,7 +14799,7 @@
       <c r="J15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -13491,7 +14820,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G16" s="0">
         <v>21</v>
@@ -13505,7 +14834,7 @@
       <c r="J16" s="0">
         <v>4</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -13526,7 +14855,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="0">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0">
         <v>28</v>
@@ -13540,7 +14869,7 @@
       <c r="J17" s="0">
         <v>5</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13561,7 +14890,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="0">
         <v>17</v>
@@ -13575,7 +14904,7 @@
       <c r="J18" s="0">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13602,667 +14931,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>913</v>
-      </c>
-      <c r="G2" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0">
-        <v>425</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0">
-        <v>825</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0">
-        <v>181</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0">
-        <v>390</v>
-      </c>
-      <c r="G6" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0">
-        <v>383</v>
-      </c>
-      <c r="G7" s="0">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="0">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0">
-        <v>579</v>
-      </c>
-      <c r="G8" s="0">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="0">
-        <v>948</v>
-      </c>
-      <c r="G9" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="0">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0">
-        <v>357</v>
-      </c>
-      <c r="G10" s="0">
-        <v>8</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="0">
-        <v>813</v>
-      </c>
-      <c r="G11" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="0">
-        <v>277</v>
-      </c>
-      <c r="G12" s="0">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="0">
-        <v>275</v>
-      </c>
-      <c r="G13" s="0">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="0">
-        <v>342</v>
-      </c>
-      <c r="G14" s="0">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="0">
-        <v>257</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="0">
-        <v>461</v>
-      </c>
-      <c r="G16" s="0">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0">
-        <v>2</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0">
-        <v>885</v>
-      </c>
-      <c r="G17" s="0">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="0">
-        <v>494</v>
-      </c>
-      <c r="G18" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K18"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId193"/>
-    <hyperlink ref="K3" r:id="rId194"/>
-    <hyperlink ref="K4" r:id="rId195"/>
-    <hyperlink ref="K5" r:id="rId196"/>
-    <hyperlink ref="K6" r:id="rId197"/>
-    <hyperlink ref="K7" r:id="rId198"/>
-    <hyperlink ref="K8" r:id="rId199"/>
-    <hyperlink ref="K9" r:id="rId200"/>
-    <hyperlink ref="K10" r:id="rId201"/>
-    <hyperlink ref="K11" r:id="rId202"/>
-    <hyperlink ref="K12" r:id="rId203"/>
-    <hyperlink ref="K13" r:id="rId204"/>
-    <hyperlink ref="K14" r:id="rId205"/>
-    <hyperlink ref="K15" r:id="rId206"/>
-    <hyperlink ref="K16" r:id="rId207"/>
-    <hyperlink ref="K17" r:id="rId208"/>
-    <hyperlink ref="K18" r:id="rId209"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>